--- a/ProjectOctober/resources/표기 표준화 문서.xlsx
+++ b/ProjectOctober/resources/표기 표준화 문서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-GFG6C3Q\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-GFG6C3Q\git\ProjectOctober\ProjectOctober\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="780">
   <si>
     <t xml:space="preserve">표기화 표준 문서 Ver 0.1 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2900,12 +2900,6 @@
     <t>주소범위2</t>
   </si>
   <si>
-    <t>area3</t>
-  </si>
-  <si>
-    <t>주소범위3</t>
-  </si>
-  <si>
     <t>알림 일련번호(PK)</t>
   </si>
   <si>
@@ -3687,14 +3681,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>List / Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List / Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3908,6 +3894,50 @@
   </si>
   <si>
     <t>Service -- SERVICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소범위3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소범위4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4170,18 +4200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4199,9 +4217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4230,15 +4245,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4249,15 +4255,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4338,12 +4368,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A20:C43" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A20:C43" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A20:C43"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="(VO) 클래스 명" dataDxfId="3"/>
-    <tableColumn id="2" name="테이블 명" dataDxfId="2"/>
-    <tableColumn id="3" name="한글 주석" dataDxfId="1"/>
+    <tableColumn id="1" name="(VO) 클래스 명" dataDxfId="2"/>
+    <tableColumn id="2" name="테이블 명" dataDxfId="1"/>
+    <tableColumn id="3" name="한글 주석" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4627,42 +4657,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5" t="s">
@@ -4677,9 +4707,9 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -4688,7 +4718,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
@@ -4702,7 +4732,7 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
@@ -4716,7 +4746,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -4730,7 +4760,7 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
@@ -4744,7 +4774,7 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
@@ -4758,10 +4788,10 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4772,10 +4802,10 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4786,10 +4816,10 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4800,10 +4830,10 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4814,10 +4844,10 @@
       <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4828,33 +4858,33 @@
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>494</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="17.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
@@ -4868,255 +4898,255 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="33">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="33">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5140,10 +5170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5161,4374 +5191,4391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
-      <c r="A5" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="D5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>768</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="E7" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="B9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="E9" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="E10" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="E11" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A12" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A12" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>722</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
-        <v>767</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="B17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A20" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A20" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>690</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="22" spans="1:5">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="E42" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E32" s="15" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="13" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A45" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A45" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="47" spans="1:5">
-      <c r="A47" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A49" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="E49" s="26" t="s">
+      <c r="D49" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="51" spans="1:5">
-      <c r="A51" s="21" t="s">
-        <v>771</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
+      <c r="A51" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="14" t="s">
+      <c r="B54" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="16" t="s">
+      <c r="B58" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="16" t="s">
+      <c r="B59" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="14" t="s">
+      <c r="B60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A61" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A61" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="E61" s="26" t="s">
+      <c r="D61" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="63" spans="1:5">
-      <c r="A63" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
+      <c r="A63" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="33">
+      <c r="A69" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" s="12" t="s">
+      <c r="E69" s="10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="E70" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="33">
-      <c r="A69" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="E71" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E72" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A73" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A73" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>734</v>
-      </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="75" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="16" t="s">
+      <c r="B79" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="14" t="s">
+      <c r="C79" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B80" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A81" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A81" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D81" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="E81" s="26" t="s">
+      <c r="D81" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="E81" s="18" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="83" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="14" t="s">
+      <c r="B86" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A87" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A87" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="E87" s="26" t="s">
+      <c r="D87" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="89" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="27"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="B90" s="13" t="s">
+      <c r="A90" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E90" s="17" t="s">
+      <c r="D90" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B91" s="12" t="s">
+      <c r="A91" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="E91" s="15" t="s">
+      <c r="D91" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B92" s="13" t="s">
+      <c r="A92" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="E92" s="17" t="s">
+      <c r="D92" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="16" t="s">
+      <c r="B95" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="14" t="s">
+      <c r="B96" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A97" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A97" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D97" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E97" s="26" t="s">
+      <c r="D97" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="E97" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="99" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="23"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="27"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B100" s="13" t="s">
+      <c r="A100" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E100" s="17" t="s">
+      <c r="D100" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B101" s="12" t="s">
+      <c r="A101" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D101" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E101" s="15" t="s">
+      <c r="D101" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="14" t="s">
+      <c r="B104" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="16" t="s">
+      <c r="B105" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="14" t="s">
+      <c r="B106" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="16" t="s">
+      <c r="B107" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="14" t="s">
+      <c r="B108" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="16" t="s">
+      <c r="C108" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B109" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="14" t="s">
+      <c r="C109" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B110" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="16" t="s">
+      <c r="B111" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="14" t="s">
+      <c r="B112" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="16" t="s">
+      <c r="B113" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="14" t="s">
+      <c r="B114" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="16" t="s">
+      <c r="B115" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="14" t="s">
+      <c r="B116" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="16" t="s">
+      <c r="B117" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="14" t="s">
+      <c r="B118" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="16" t="s">
+      <c r="B119" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="14" t="s">
+      <c r="B120" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="16" t="s">
+      <c r="B121" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="14" t="s">
+      <c r="B122" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="16" t="s">
+      <c r="B123" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="14" t="s">
+      <c r="B124" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="16" t="s">
+      <c r="B125" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B124" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="14" t="s">
+      <c r="B126" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="16" t="s">
+      <c r="B127" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B126" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="14" t="s">
+      <c r="B128" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="16" t="s">
+      <c r="B129" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B128" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="14" t="s">
+      <c r="B130" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="16" t="s">
+      <c r="B131" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="14" t="s">
+      <c r="B132" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="16" t="s">
+      <c r="C132" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B133" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="14" t="s">
+      <c r="C133" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B134" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="16" t="s">
+      <c r="C134" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B135" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="14" t="s">
+      <c r="C135" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="C136" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="B136" s="13" t="s">
+      <c r="C137" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="B137" s="12" t="s">
+      <c r="B138" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="16" t="s">
+      <c r="B139" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="14" t="s">
+      <c r="B140" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="16" t="s">
+      <c r="B141" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="B140" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="14" t="s">
+      <c r="B142" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="16" t="s">
+      <c r="B143" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="14" t="s">
+      <c r="B144" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="16" t="s">
+      <c r="B145" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="B144" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="14" t="s">
+      <c r="B146" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="16" t="s">
+      <c r="B147" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="B146" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="14" t="s">
+      <c r="B148" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B147" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="16" t="s">
+      <c r="B149" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="14" t="s">
+      <c r="B150" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="16" t="s">
+      <c r="B151" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="14" t="s">
+      <c r="B152" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B151" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="16" t="s">
+      <c r="B153" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B152" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D152" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="14" t="s">
+      <c r="B154" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="16" t="s">
+      <c r="B155" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="14" t="s">
+      <c r="B156" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="16" t="s">
+      <c r="B157" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E156" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="14" t="s">
+      <c r="B158" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="16" t="s">
+      <c r="B159" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E158" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="14" t="s">
+      <c r="B160" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="16" t="s">
+      <c r="B161" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A162" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E160" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A162" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="C162" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="D162" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="E162" s="20" t="s">
+      <c r="D162" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="E162" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="164" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="23"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="27"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B165" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E165" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D166" s="12" t="s">
+      <c r="B170" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="E166" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E167" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D168" s="12" t="s">
+      <c r="E174" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="E168" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="E169" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="E171" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E173" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="14" t="s">
+      <c r="E175" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B174" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="16" t="s">
+      <c r="B176" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A177" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="B175" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D175" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E175" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A177" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="B177" s="19" t="s">
+      <c r="B177" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D177" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="E177" s="20" t="s">
+      <c r="D177" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="E177" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="179" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="23"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="27"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="16" t="s">
+      <c r="A180" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="B180" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="D180" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E180" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E182" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="14" t="s">
+      <c r="B184" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B183" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="D183" s="12" t="s">
+      <c r="B185" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A186" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="D186" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="E183" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D184" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E184" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E185" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A186" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="B186" s="19" t="s">
+      <c r="E186" s="15" t="s">
         <v>749</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="D186" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="E186" s="20" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="188" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="23"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="27"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A192" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="B189" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E189" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D191" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="E191" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A192" s="24" t="s">
-        <v>650</v>
-      </c>
-      <c r="B192" s="25" t="s">
+      <c r="B192" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D192" s="25" t="s">
-        <v>721</v>
-      </c>
-      <c r="E192" s="26" t="s">
+      <c r="D192" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="E192" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="194" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B194" s="22"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="23"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="27"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="16" t="s">
+      <c r="A195" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="B195" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E195" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="14" t="s">
+      <c r="B197" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A198" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="B196" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E196" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E197" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A198" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="B198" s="25" t="s">
+      <c r="B198" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C198" s="25" t="s">
+      <c r="C198" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D198" s="25" t="s">
-        <v>737</v>
-      </c>
-      <c r="E198" s="26" t="s">
+      <c r="D198" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="E198" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="200" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="23"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="27"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="16" t="s">
+      <c r="A201" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A204" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B204" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="B201" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="D201" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="E201" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D203" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E203" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A204" s="24" t="s">
-        <v>656</v>
-      </c>
-      <c r="B204" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D204" s="25" t="s">
-        <v>757</v>
-      </c>
-      <c r="E204" s="26" t="s">
+      <c r="D204" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="E204" s="18" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="206" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="s">
+      <c r="A206" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="23"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="27"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B207" s="13" t="s">
+      <c r="A207" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D207" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E207" s="17" t="s">
+      <c r="D207" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E207" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B208" s="12" t="s">
+      <c r="A208" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="D208" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D209" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="E208" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="16" t="s">
+      <c r="E209" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B209" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D209" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E209" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="14" t="s">
+      <c r="B211" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="B210" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D210" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E210" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="16" t="s">
+      <c r="B212" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B211" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D211" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E211" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="14" t="s">
+      <c r="B213" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B212" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D212" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E212" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="16" t="s">
+      <c r="B214" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A215" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="B213" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="D213" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E213" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E214" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A215" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="B215" s="19" t="s">
+      <c r="B215" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C215" s="19" t="s">
+      <c r="C215" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="D215" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E215" s="20" t="s">
+      <c r="D215" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E215" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="217" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A217" s="21" t="s">
+      <c r="A217" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="23"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="27"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="16" t="s">
+      <c r="A218" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A221" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B218" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E218" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E219" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="E220" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A221" s="24" t="s">
-        <v>667</v>
-      </c>
-      <c r="B221" s="25" t="s">
+      <c r="B221" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="D221" s="25" t="s">
-        <v>722</v>
-      </c>
-      <c r="E221" s="26" t="s">
+      <c r="D221" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="E221" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="223" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A223" s="21" t="s">
+      <c r="A223" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="23"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="27"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="16" t="s">
+      <c r="A224" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A229" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B224" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="E224" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="E225" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E226" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C227" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D227" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E227" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="E228" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A229" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="B229" s="25" t="s">
+      <c r="B229" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D229" s="25" t="s">
-        <v>762</v>
-      </c>
-      <c r="E229" s="26" t="s">
+      <c r="D229" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="E229" s="18" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="231" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A231" s="21" t="s">
+      <c r="A231" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
-      <c r="D231" s="22"/>
-      <c r="E231" s="23"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="27"/>
     </row>
     <row r="232" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A232" s="16" t="s">
+      <c r="A232" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A233" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A234" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B232" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D232" s="13" t="s">
+      <c r="B234" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A235" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A236" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D236" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="E232" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A233" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B233" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D233" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="E233" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A234" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D234" s="13" t="s">
+      <c r="E236" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A237" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A238" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A239" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A240" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A241" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A242" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D242" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="E234" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A235" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="B235" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E235" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A236" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D236" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="E236" s="17" t="s">
+      <c r="E242" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A243" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A244" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A245" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A246" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A247" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A248" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A249" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E249" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A237" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="E237" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A238" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E238" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A239" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="B239" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C239" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D239" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="E239" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A240" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="E240" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A241" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C241" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D241" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E241" s="15" t="s">
+    <row r="250" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A250" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A251" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A252" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E252" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A242" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E242" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A243" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D243" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E243" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A244" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="E244" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A245" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D245" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E245" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A246" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D246" s="13" t="s">
+    <row r="253" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A253" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A254" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D254" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="E246" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A247" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C247" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D247" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E247" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A248" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D248" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E248" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A249" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C249" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D249" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E249" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A250" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="E250" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A251" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="E251" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A252" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E252" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A253" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="E253" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A254" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D254" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="E254" s="20" t="s">
+      <c r="E254" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="256" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A256" s="21" t="s">
+      <c r="A256" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B256" s="22"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="22"/>
-      <c r="E256" s="23"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="27"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B257" s="13" t="s">
+      <c r="A257" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B257" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D257" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E257" s="17" t="s">
+      <c r="D257" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E257" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B258" s="12" t="s">
+      <c r="A258" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B258" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D258" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E258" s="15" t="s">
+      <c r="D258" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E258" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="16" t="s">
+      <c r="A259" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B259" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D259" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E259" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="14" t="s">
+      <c r="B261" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="B260" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C260" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E260" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="16" t="s">
+      <c r="B262" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B261" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E261" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="14" t="s">
+      <c r="B263" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B262" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C262" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E262" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="16" t="s">
+      <c r="B264" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A265" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="B263" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="E263" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="C264" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E264" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A265" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="B265" s="19" t="s">
+      <c r="B265" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C265" s="19" t="s">
+      <c r="C265" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="D265" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="E265" s="20" t="s">
+      <c r="D265" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="E265" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="267" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A267" s="21" t="s">
+      <c r="A267" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="23"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="27"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="B268" s="13" t="s">
+      <c r="A268" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B268" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D268" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E268" s="17" t="s">
+      <c r="D268" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E268" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B269" s="12" t="s">
+      <c r="A269" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B269" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C269" s="12" t="s">
+      <c r="C269" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D269" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E269" s="15" t="s">
+      <c r="D269" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E269" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B270" s="13" t="s">
+      <c r="A270" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B270" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="D270" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="E270" s="17" t="s">
+      <c r="D270" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="E270" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A271" s="24" t="s">
-        <v>672</v>
-      </c>
-      <c r="B271" s="25" t="s">
+      <c r="A271" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="B271" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C271" s="25" t="s">
+      <c r="C271" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="D271" s="25" t="s">
-        <v>764</v>
-      </c>
-      <c r="E271" s="26" t="s">
+      <c r="D271" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="E271" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="273" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A273" s="21" t="s">
+      <c r="A273" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
-      <c r="D273" s="22"/>
-      <c r="E273" s="23"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="27"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="B274" s="13" t="s">
+      <c r="A274" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D274" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="E274" s="17" t="s">
+      <c r="D274" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E274" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="B275" s="12" t="s">
+      <c r="A275" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C275" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D275" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E275" s="15" t="s">
+      <c r="D275" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E275" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="B276" s="13" t="s">
+      <c r="A276" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D276" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="E276" s="17" t="s">
+      <c r="D276" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E276" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A277" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="B277" s="25" t="s">
+      <c r="A277" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="B277" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C277" s="25" t="s">
+      <c r="C277" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="D277" s="25" t="s">
-        <v>734</v>
-      </c>
-      <c r="E277" s="26" t="s">
+      <c r="D277" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="E277" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="279" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A279" s="21" t="s">
+      <c r="A279" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
-      <c r="E279" s="23"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="26"/>
+      <c r="D279" s="26"/>
+      <c r="E279" s="27"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="16" t="s">
+      <c r="A280" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="D280" s="13" t="s">
+      <c r="D280" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A284" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="B284" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="E284" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="286" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A286" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B286" s="26"/>
+      <c r="C286" s="26"/>
+      <c r="D286" s="26"/>
+      <c r="E286" s="27"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D287" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="E280" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="D281" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="E281" s="15" t="s">
+      <c r="E287" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E292" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="B282" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="D282" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E282" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A283" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="B283" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C283" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D283" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="E283" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="285" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A285" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
-      <c r="E285" s="23"/>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="16" t="s">
+    <row r="293" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A293" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="B286" s="13" t="s">
-        <v>676</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E286" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D287" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E287" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="B288" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D288" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E288" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C289" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D289" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="E289" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B290" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D290" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E290" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="14" t="s">
+      <c r="B293" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="B291" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C291" s="12" t="s">
+      <c r="C293" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="D291" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E291" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A292" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="B292" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="C292" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D292" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="E292" s="20" t="s">
+      <c r="D293" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="E293" s="15" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A285:E285"/>
+    <mergeCell ref="A286:E286"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -9549,15 +9596,16 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A217:E217"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="A83:E83"/>
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A217:E217"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9581,90 +9629,90 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1" t="s">
         <v>702</v>
       </c>
-      <c r="C1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>704</v>
-      </c>
-      <c r="F1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E2" t="s">
         <v>703</v>
       </c>
-      <c r="C2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>705</v>
-      </c>
-      <c r="F2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="30" t="s">
         <v>708</v>
       </c>
-      <c r="D3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E3" t="s">
-        <v>697</v>
-      </c>
-      <c r="F3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ProjectOctober/resources/표기 표준화 문서.xlsx
+++ b/ProjectOctober/resources/표기 표준화 문서.xlsx
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="784">
   <si>
     <t xml:space="preserve">표기화 표준 문서 Ver 0.1 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1988,18 +1988,12 @@
     <t>사업자번호(PK)</t>
   </si>
   <si>
-    <t>NUMBER(10,0)</t>
-  </si>
-  <si>
     <t>etp_email(PK)(FK)</t>
   </si>
   <si>
     <t>사업자EMAIL(PK)(FK)</t>
   </si>
   <si>
-    <t>employer</t>
-  </si>
-  <si>
     <t>사업자 대표명</t>
   </si>
   <si>
@@ -2054,9 +2048,6 @@
     <t>여성 스태프 수</t>
   </si>
   <si>
-    <t>capacity</t>
-  </si>
-  <si>
     <t>동시 수용 가능 인원</t>
   </si>
   <si>
@@ -2780,9 +2771,6 @@
     <t>사업자등록증</t>
   </si>
   <si>
-    <t>BLOB</t>
-  </si>
-  <si>
     <t>mon</t>
   </si>
   <si>
@@ -2853,9 +2841,6 @@
   </si>
   <si>
     <t>CAPACITY</t>
-  </si>
-  <si>
-    <t>attribuate</t>
   </si>
   <si>
     <t>hol_wtl_num(PK)</t>
@@ -2974,93 +2959,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>memberEmail</t>
-  </si>
-  <si>
     <t>memberCode</t>
   </si>
   <si>
-    <t>memberName</t>
-  </si>
-  <si>
-    <t>memberPassword</t>
-  </si>
-  <si>
-    <t>memberPhone</t>
-  </si>
-  <si>
-    <t>memberJoinedDate</t>
-  </si>
-  <si>
     <t>cstEmail</t>
   </si>
   <si>
-    <t>cstAddress</t>
-  </si>
-  <si>
-    <t>cstZipcode</t>
-  </si>
-  <si>
-    <t>cstBirthday</t>
-  </si>
-  <si>
-    <t>cstGender</t>
-  </si>
-  <si>
-    <t>oneClickStatus</t>
-  </si>
-  <si>
     <t>etpNum</t>
   </si>
   <si>
     <t>etpEmail</t>
   </si>
   <si>
-    <t>etpOwner</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
-    <t>etpSuperClass</t>
-  </si>
-  <si>
     <t>superclass</t>
   </si>
   <si>
-    <t>etpAddress</t>
-  </si>
-  <si>
-    <t>etpZipcode</t>
-  </si>
-  <si>
-    <t>etpTitle</t>
-  </si>
-  <si>
-    <t>etpStartHour</t>
-  </si>
-  <si>
-    <t>etpEndHour</t>
-  </si>
-  <si>
-    <t>etpPhone</t>
-  </si>
-  <si>
-    <t>etpMaleStaffCount</t>
-  </si>
-  <si>
-    <t>etpFemaleStaffCount</t>
-  </si>
-  <si>
-    <t>etpHourlyCapacity</t>
-  </si>
-  <si>
     <t>hourly_capacity</t>
   </si>
   <si>
-    <t>rsvModificationDeadline</t>
-  </si>
-  <si>
     <t>예약 변경취소 마감 시간 설정</t>
   </si>
   <si>
@@ -3073,30 +2992,15 @@
     <t>ntfFrequencyToCst</t>
   </si>
   <si>
-    <t>etpPageTemplateType</t>
-  </si>
-  <si>
-    <t>etpLocationMapAPIAddress</t>
-  </si>
-  <si>
     <t>etpLocationGuide</t>
   </si>
   <si>
     <t>svcList</t>
   </si>
   <si>
-    <t>etpSubClass</t>
-  </si>
-  <si>
-    <t>etpSpecialtyList</t>
-  </si>
-  <si>
     <t>specialty_list</t>
   </si>
   <si>
-    <t>etpDescription</t>
-  </si>
-  <si>
     <t>memberType</t>
   </si>
   <si>
@@ -3109,87 +3013,15 @@
     <t>cpnNum</t>
   </si>
   <si>
-    <t>rsvStartDate</t>
-  </si>
-  <si>
-    <t>rsvEndDate</t>
-  </si>
-  <si>
-    <t>rsvStatus</t>
-  </si>
-  <si>
-    <t>employeeGender</t>
-  </si>
-  <si>
-    <t>svcTitle</t>
-  </si>
-  <si>
-    <t>svcCost</t>
-  </si>
-  <si>
-    <t>svcTime</t>
-  </si>
-  <si>
-    <t>svcDescription</t>
-  </si>
-  <si>
-    <t>svcCategory</t>
-  </si>
-  <si>
-    <t>svcSpecialty</t>
-  </si>
-  <si>
     <t>Specialty</t>
   </si>
   <si>
-    <t>svcCount</t>
-  </si>
-  <si>
     <t>cardNum</t>
   </si>
   <si>
-    <t>cardTitle</t>
-  </si>
-  <si>
-    <t>cardDigit</t>
-  </si>
-  <si>
     <t>digit</t>
   </si>
   <si>
-    <t>cardCVC</t>
-  </si>
-  <si>
-    <t>cardExpiration</t>
-  </si>
-  <si>
-    <t>adminEmail</t>
-  </si>
-  <si>
-    <t>adminAuthCreate</t>
-  </si>
-  <si>
-    <t>adminAuthUpdate</t>
-  </si>
-  <si>
-    <t>adminAuthDelete</t>
-  </si>
-  <si>
-    <t>cpnTitle</t>
-  </si>
-  <si>
-    <t>cpnCode</t>
-  </si>
-  <si>
-    <t>cpnRate</t>
-  </si>
-  <si>
-    <t>cpnStartDate</t>
-  </si>
-  <si>
-    <t>cpnEndDate</t>
-  </si>
-  <si>
     <t>logoComponent</t>
   </si>
   <si>
@@ -3211,15 +3043,9 @@
     <t>outlineComponent</t>
   </si>
   <si>
-    <t>summary</t>
-  </si>
-  <si>
     <t>outlineTheme</t>
   </si>
   <si>
-    <t>summary_theme</t>
-  </si>
-  <si>
     <t>outlineSizeX</t>
   </si>
   <si>
@@ -3232,60 +3058,6 @@
     <t>outlinePosY</t>
   </si>
   <si>
-    <t>rsvManagementComponent</t>
-  </si>
-  <si>
-    <t>rsvManagementTheme</t>
-  </si>
-  <si>
-    <t>rsvManagementSizeX</t>
-  </si>
-  <si>
-    <t>rsvManagementSizeY</t>
-  </si>
-  <si>
-    <t>rsvManagementPosX</t>
-  </si>
-  <si>
-    <t>rsvManagementPosY</t>
-  </si>
-  <si>
-    <t>miscSettingsButtonComponent</t>
-  </si>
-  <si>
-    <t>miscSettingsButtonTheme</t>
-  </si>
-  <si>
-    <t>miscSettingsButtonSizeX</t>
-  </si>
-  <si>
-    <t>miscSettingsButtonSizeY</t>
-  </si>
-  <si>
-    <t>miscSettingsPosX</t>
-  </si>
-  <si>
-    <t>miscSettingsPosY</t>
-  </si>
-  <si>
-    <t>rsvButtonBarComponent</t>
-  </si>
-  <si>
-    <t>rsvButtonBarTheme</t>
-  </si>
-  <si>
-    <t>rsvButtonBarSizeX</t>
-  </si>
-  <si>
-    <t>rsvButtonBarSizeY</t>
-  </si>
-  <si>
-    <t>rsvButtonBarPosX</t>
-  </si>
-  <si>
-    <t>rsvButtonBarPosY</t>
-  </si>
-  <si>
     <t>etpInfoComponent</t>
   </si>
   <si>
@@ -3352,24 +3124,6 @@
     <t>galleryPosY</t>
   </si>
   <si>
-    <t>etpLocationComponent</t>
-  </si>
-  <si>
-    <t>etpLocationTheme</t>
-  </si>
-  <si>
-    <t>etpLocationSizeX</t>
-  </si>
-  <si>
-    <t>etpLocationSizeY</t>
-  </si>
-  <si>
-    <t>etpLocationPosX</t>
-  </si>
-  <si>
-    <t>etpLocationPosY</t>
-  </si>
-  <si>
     <t>reviewComponent</t>
   </si>
   <si>
@@ -3394,96 +3148,27 @@
     <t>rvwNum</t>
   </si>
   <si>
-    <t>rvwInputDate</t>
-  </si>
-  <si>
     <t>cstIpAddress</t>
   </si>
   <si>
-    <t>rvwContent</t>
-  </si>
-  <si>
     <t>cstJob</t>
   </si>
   <si>
-    <t>rvwHygiene</t>
-  </si>
-  <si>
-    <t>rvwComfort</t>
-  </si>
-  <si>
-    <t>rvwTechnique</t>
-  </si>
-  <si>
-    <t>rvwPrice</t>
-  </si>
-  <si>
-    <t>rvwService</t>
-  </si>
-  <si>
     <t>photoNum</t>
   </si>
   <si>
-    <t>photoUsage</t>
-  </si>
-  <si>
-    <t>photoDescription</t>
-  </si>
-  <si>
-    <t>photoWebAddress</t>
-  </si>
-  <si>
     <t>pmtNum</t>
   </si>
   <si>
-    <t>pmtTime</t>
-  </si>
-  <si>
-    <t>pmtAmount</t>
-  </si>
-  <si>
     <t>urgNum</t>
   </si>
   <si>
-    <t>urgName</t>
-  </si>
-  <si>
-    <t>urgEmail</t>
-  </si>
-  <si>
-    <t>urgPhone</t>
-  </si>
-  <si>
     <t>wtlNum</t>
   </si>
   <si>
-    <t>etpRegistrationCard</t>
-  </si>
-  <si>
     <t>etp_reg_card</t>
   </si>
   <si>
-    <t>monCapacity</t>
-  </si>
-  <si>
-    <t>tueCapacity</t>
-  </si>
-  <si>
-    <t>wedCapacity</t>
-  </si>
-  <si>
-    <t>thuCapacity</t>
-  </si>
-  <si>
-    <t>friCapacity</t>
-  </si>
-  <si>
-    <t>satCapacity</t>
-  </si>
-  <si>
-    <t>sunCapacity</t>
-  </si>
-  <si>
     <t>holNum</t>
   </si>
   <si>
@@ -3496,33 +3181,12 @@
     <t>saleNum</t>
   </si>
   <si>
-    <t>saleTime</t>
-  </si>
-  <si>
-    <t>saleAmount</t>
-  </si>
-  <si>
-    <t>holWaitlistNum</t>
-  </si>
-  <si>
-    <t>holWaitlistDate</t>
-  </si>
-  <si>
-    <t>urgReservationNumber</t>
-  </si>
-  <si>
-    <t>urgReservationPassword</t>
-  </si>
-  <si>
     <t>ntfNum</t>
   </si>
   <si>
     <t>ntf_num(PK)</t>
   </si>
   <si>
-    <t>ntfRead</t>
-  </si>
-  <si>
     <t>DB 표기법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3544,10 +3208,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3693,26 +3353,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date/LocalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date/LocalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time/LocalTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time/LocalTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date/LocalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3721,18 +3361,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>INTERVAL DAY(0) TO SECOND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INTERVAL DAY(0) TO SECOND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time/LocalTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3741,11 +3389,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>String (or List/Array)</t>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3757,31 +3413,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>upload_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date/LocalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date/LocalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date/LocalDate</t>
+    <t>옆에 시간 관련 표준 표기 탭 참조!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 표기법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer -- CUSTOMER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member -- MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise -- ENTERPRISE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberCode -- MEMBER_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation -- RESERVATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service -- SERVICE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3789,71 +3489,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>upload_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>photoUploadDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timestamp/LocalDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timestamp/LocalDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timestamp/LocalDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
+    <t>area3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소범위3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3861,39 +3513,495 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date/LocalDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옆에 시간 관련 표준 표기 탭 참조!!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 표기법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer -- CUSTOMER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member -- MEMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enterprise -- ENTERPRISE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberCode -- MEMBER_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reservation -- RESERVATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service -- SERVICE</t>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소범위4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialty_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourly_capacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinedDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneclickStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superclass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startHour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endHour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maleStaffCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>femaleStaffCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyCapacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modificationDeadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageTemplateType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etpLocationMapAPIAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialtyList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeeGender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authUpdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authDelete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline_theme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvMgmComponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvMgmTheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvMgmSizeX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvMgmSizeY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvMgmPosX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvMgmPosY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscSettingComponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscSettingTheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscSettingSizeX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscSettingSizeY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscSettingPosX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscSettingPosY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvBtnBarComponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvBtnBarTheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvBtnBarSizeX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvBtnBarSizeY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvBtnBarPosX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvBtnBarPosY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etpInfoPosX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etpInfoPosY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationComponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationTheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationSizeX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationSizeY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationPosX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationPosY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hygiene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comfort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etpRegCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holWtlNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holWtlDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>urgRsvNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3901,6 +4009,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3909,15 +4053,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>area3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>area3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소범위3</t>
+    <t>VARCHAR2(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3925,19 +4061,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>area4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>area4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소범위4</t>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4867,16 +4995,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25">
@@ -5172,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5192,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>680</v>
+        <v>568</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -5202,7 +5330,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>691</v>
+        <v>578</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -5212,7 +5340,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>761</v>
+        <v>630</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -5222,24 +5350,24 @@
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>762</v>
+        <v>631</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>676</v>
+        <v>564</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>677</v>
+        <v>565</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>679</v>
+        <v>567</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>678</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>764</v>
+        <v>633</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -5248,7 +5376,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>493</v>
+        <v>654</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>145</v>
@@ -5257,7 +5385,7 @@
         <v>146</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>148</v>
@@ -5265,7 +5393,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>494</v>
+        <v>655</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>149</v>
@@ -5274,15 +5402,15 @@
         <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>151</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>495</v>
+        <v>656</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>152</v>
@@ -5291,7 +5419,7 @@
         <v>153</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>154</v>
@@ -5299,7 +5427,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>496</v>
+        <v>657</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>155</v>
@@ -5308,7 +5436,7 @@
         <v>156</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>684</v>
+        <v>571</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>154</v>
@@ -5316,7 +5444,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>497</v>
+        <v>658</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>157</v>
@@ -5325,7 +5453,7 @@
         <v>158</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>159</v>
@@ -5333,7 +5461,7 @@
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16" t="s">
-        <v>498</v>
+        <v>659</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>160</v>
@@ -5342,7 +5470,7 @@
         <v>161</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>718</v>
+        <v>652</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>162</v>
@@ -5351,7 +5479,7 @@
     <row r="13" spans="1:6" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
-        <v>763</v>
+        <v>632</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -5360,7 +5488,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>163</v>
@@ -5369,7 +5497,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>148</v>
@@ -5377,7 +5505,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>165</v>
@@ -5386,7 +5514,7 @@
         <v>166</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>167</v>
@@ -5394,7 +5522,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>501</v>
+        <v>661</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>168</v>
@@ -5403,7 +5531,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>170</v>
@@ -5411,7 +5539,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>502</v>
+        <v>662</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>171</v>
@@ -5420,7 +5548,7 @@
         <v>172</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>719</v>
+        <v>653</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>162</v>
@@ -5428,7 +5556,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>503</v>
+        <v>663</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>173</v>
@@ -5437,7 +5565,7 @@
         <v>174</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>687</v>
+        <v>574</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>175</v>
@@ -5445,7 +5573,7 @@
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="A20" s="16" t="s">
-        <v>504</v>
+        <v>664</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>176</v>
@@ -5454,7 +5582,7 @@
         <v>177</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>151</v>
@@ -5463,7 +5591,7 @@
     <row r="21" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="22" spans="1:5">
       <c r="A22" s="25" t="s">
-        <v>765</v>
+        <v>634</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -5472,7 +5600,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>178</v>
@@ -5481,24 +5609,24 @@
         <v>179</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>688</v>
+        <v>781</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>180</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>148</v>
@@ -5506,16 +5634,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>507</v>
+        <v>665</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>154</v>
@@ -5523,16 +5651,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>509</v>
+        <v>666</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>170</v>
@@ -5540,16 +5668,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11" t="s">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>167</v>
@@ -5557,50 +5685,50 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>512</v>
+        <v>668</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>513</v>
+        <v>669</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>514</v>
+        <v>670</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>720</v>
+        <v>765</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>151</v>
@@ -5608,16 +5736,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>515</v>
+        <v>671</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>151</v>
@@ -5625,16 +5753,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>159</v>
@@ -5642,16 +5770,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
-        <v>517</v>
+        <v>672</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>151</v>
@@ -5659,16 +5787,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>518</v>
+        <v>673</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>151</v>
@@ -5676,16 +5804,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
-        <v>519</v>
+        <v>674</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>151</v>
@@ -5693,16 +5821,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>521</v>
+        <v>675</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>151</v>
@@ -5710,16 +5838,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>713</v>
+        <v>600</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>151</v>
@@ -5727,16 +5855,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>151</v>
@@ -5744,16 +5872,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
-        <v>526</v>
+        <v>676</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>151</v>
@@ -5761,16 +5889,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
-        <v>527</v>
+        <v>677</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>167</v>
@@ -5778,33 +5906,33 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>714</v>
+        <v>601</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>769</v>
+        <v>638</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>167</v>
@@ -5812,16 +5940,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
-        <v>530</v>
+        <v>678</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>159</v>
@@ -5829,16 +5957,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>531</v>
+        <v>679</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>167</v>
@@ -5846,25 +5974,25 @@
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1">
       <c r="A45" s="13" t="s">
-        <v>533</v>
+        <v>680</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="47" spans="1:5">
       <c r="A47" s="25" t="s">
-        <v>766</v>
+        <v>635</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -5873,16 +6001,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>151</v>
@@ -5890,25 +6018,25 @@
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1">
       <c r="A49" s="16" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="51" spans="1:5">
       <c r="A51" s="25" t="s">
-        <v>767</v>
+        <v>636</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -5917,16 +6045,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>151</v>
@@ -5934,16 +6062,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="9" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>716</v>
+        <v>603</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>151</v>
@@ -5951,16 +6079,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>716</v>
+        <v>603</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>151</v>
@@ -5968,33 +6096,33 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>180</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>148</v>
@@ -6002,16 +6130,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>148</v>
@@ -6019,16 +6147,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>538</v>
+        <v>681</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>718</v>
+        <v>769</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>162</v>
@@ -6036,16 +6164,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="9" t="s">
-        <v>539</v>
+        <v>682</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>162</v>
@@ -6053,16 +6181,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>540</v>
+        <v>691</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>151</v>
@@ -6070,25 +6198,25 @@
     </row>
     <row r="61" spans="1:5" ht="17.25" thickBot="1">
       <c r="A61" s="16" t="s">
-        <v>541</v>
+        <v>683</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>173</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>687</v>
+        <v>574</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="63" spans="1:5">
       <c r="A63" s="25" t="s">
-        <v>768</v>
+        <v>637</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -6097,16 +6225,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>151</v>
@@ -6114,33 +6242,33 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>148</v>
@@ -6148,16 +6276,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="9" t="s">
-        <v>542</v>
+        <v>684</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>154</v>
@@ -6165,16 +6293,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>543</v>
+        <v>685</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>725</v>
+        <v>606</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>151</v>
@@ -6182,84 +6310,84 @@
     </row>
     <row r="69" spans="1:5" ht="33">
       <c r="A69" s="9" t="s">
-        <v>544</v>
+        <v>686</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>726</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>545</v>
+        <v>687</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>728</v>
+        <v>608</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="9" t="s">
-        <v>546</v>
+        <v>688</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>729</v>
+        <v>609</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" thickBot="1">
       <c r="A73" s="16" t="s">
-        <v>549</v>
+        <v>690</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>151</v>
@@ -6277,16 +6405,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="11" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>151</v>
@@ -6294,16 +6422,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>714</v>
+        <v>601</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>148</v>
@@ -6311,16 +6439,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="11" t="s">
-        <v>551</v>
+        <v>692</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>154</v>
@@ -6328,53 +6456,53 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
-        <v>552</v>
+        <v>693</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>732</v>
+        <v>611</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="11" t="s">
-        <v>554</v>
+        <v>694</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.25" thickBot="1">
       <c r="A81" s="16" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.25" thickBot="1"/>
@@ -6389,16 +6517,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="11" t="s">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>148</v>
@@ -6406,16 +6534,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>557</v>
+        <v>696</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>151</v>
@@ -6423,16 +6551,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="11" t="s">
-        <v>558</v>
+        <v>697</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>151</v>
@@ -6440,16 +6568,16 @@
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1">
       <c r="A87" s="16" t="s">
-        <v>559</v>
+        <v>698</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>151</v>
@@ -6467,16 +6595,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="11" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>151</v>
@@ -6484,33 +6612,33 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>734</v>
+        <v>569</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>735</v>
+        <v>613</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>148</v>
@@ -6518,16 +6646,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="9" t="s">
-        <v>560</v>
+        <v>692</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>154</v>
@@ -6535,33 +6663,33 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="11" t="s">
-        <v>561</v>
+        <v>699</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="9" t="s">
-        <v>562</v>
+        <v>700</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>732</v>
+        <v>611</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>151</v>
@@ -6569,16 +6697,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="11" t="s">
-        <v>563</v>
+        <v>701</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>162</v>
@@ -6586,16 +6714,16 @@
     </row>
     <row r="97" spans="1:5" ht="17.25" thickBot="1">
       <c r="A97" s="16" t="s">
-        <v>564</v>
+        <v>702</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>162</v>
@@ -6613,33 +6741,33 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>148</v>
@@ -6647,16 +6775,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="11" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>151</v>
@@ -6664,16 +6792,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>151</v>
@@ -6681,16 +6809,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="11" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>151</v>
@@ -6698,16 +6826,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="9" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>151</v>
@@ -6715,16 +6843,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="11" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>151</v>
@@ -6732,16 +6860,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>151</v>
@@ -6749,16 +6877,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="11" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>572</v>
+        <v>703</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>151</v>
@@ -6766,16 +6894,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="9" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>574</v>
+        <v>704</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>151</v>
@@ -6783,16 +6911,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="11" t="s">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>151</v>
@@ -6800,16 +6928,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="9" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>151</v>
@@ -6817,16 +6945,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="11" t="s">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>151</v>
@@ -6834,16 +6962,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="9" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>151</v>
@@ -6851,16 +6979,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="11" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>151</v>
@@ -6868,16 +6996,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="9" t="s">
-        <v>580</v>
+        <v>706</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>151</v>
@@ -6885,16 +7013,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="11" t="s">
-        <v>581</v>
+        <v>707</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>151</v>
@@ -6902,16 +7030,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="9" t="s">
-        <v>582</v>
+        <v>708</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>151</v>
@@ -6919,16 +7047,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="11" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>151</v>
@@ -6936,16 +7064,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
-        <v>584</v>
+        <v>710</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>151</v>
@@ -6953,16 +7081,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="11" t="s">
-        <v>585</v>
+        <v>711</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>151</v>
@@ -6970,16 +7098,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="9" t="s">
-        <v>586</v>
+        <v>712</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>151</v>
@@ -6987,16 +7115,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="11" t="s">
-        <v>587</v>
+        <v>713</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>151</v>
@@ -7004,16 +7132,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="9" t="s">
-        <v>588</v>
+        <v>714</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>151</v>
@@ -7021,16 +7149,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="11" t="s">
-        <v>589</v>
+        <v>715</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>151</v>
@@ -7038,16 +7166,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="9" t="s">
-        <v>590</v>
+        <v>716</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>151</v>
@@ -7055,16 +7183,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="11" t="s">
-        <v>591</v>
+        <v>717</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>151</v>
@@ -7072,16 +7200,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="9" t="s">
-        <v>592</v>
+        <v>718</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>151</v>
@@ -7089,16 +7217,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="11" t="s">
-        <v>593</v>
+        <v>719</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>151</v>
@@ -7106,16 +7234,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
-        <v>594</v>
+        <v>720</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>151</v>
@@ -7123,16 +7251,16 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="11" t="s">
-        <v>595</v>
+        <v>721</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>151</v>
@@ -7140,16 +7268,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
-        <v>596</v>
+        <v>722</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>151</v>
@@ -7157,16 +7285,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="11" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>711</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>151</v>
@@ -7174,16 +7302,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="9" t="s">
-        <v>599</v>
+        <v>523</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>151</v>
@@ -7191,16 +7319,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="11" t="s">
-        <v>601</v>
+        <v>525</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>602</v>
+        <v>526</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>151</v>
@@ -7208,16 +7336,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="9" t="s">
-        <v>603</v>
+        <v>527</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>151</v>
@@ -7225,16 +7353,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="11" t="s">
-        <v>601</v>
+        <v>723</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>151</v>
@@ -7242,16 +7370,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="9" t="s">
-        <v>603</v>
+        <v>724</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>151</v>
@@ -7259,16 +7387,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="11" t="s">
-        <v>607</v>
+        <v>531</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>151</v>
@@ -7276,16 +7404,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>151</v>
@@ -7293,16 +7421,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="11" t="s">
-        <v>609</v>
+        <v>533</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>151</v>
@@ -7310,16 +7438,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="9" t="s">
-        <v>610</v>
+        <v>534</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>151</v>
@@ -7327,16 +7455,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="11" t="s">
-        <v>611</v>
+        <v>535</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>151</v>
@@ -7344,16 +7472,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="9" t="s">
-        <v>612</v>
+        <v>536</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>151</v>
@@ -7361,16 +7489,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="11" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>151</v>
@@ -7378,16 +7506,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
-        <v>614</v>
+        <v>538</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>151</v>
@@ -7395,16 +7523,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="11" t="s">
-        <v>615</v>
+        <v>539</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>151</v>
@@ -7412,16 +7540,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
-        <v>616</v>
+        <v>540</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>151</v>
@@ -7429,16 +7557,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="11" t="s">
-        <v>617</v>
+        <v>541</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>151</v>
@@ -7446,16 +7574,16 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="9" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E149" s="10" t="s">
         <v>151</v>
@@ -7463,16 +7591,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="11" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>151</v>
@@ -7480,16 +7608,16 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="9" t="s">
-        <v>620</v>
+        <v>726</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>151</v>
@@ -7497,16 +7625,16 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="11" t="s">
-        <v>621</v>
+        <v>727</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>151</v>
@@ -7514,16 +7642,16 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="9" t="s">
-        <v>622</v>
+        <v>728</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>151</v>
@@ -7531,16 +7659,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="11" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>151</v>
@@ -7548,16 +7676,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
-        <v>624</v>
+        <v>730</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>151</v>
@@ -7565,16 +7693,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="11" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>151</v>
@@ -7582,16 +7710,16 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="9" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>151</v>
@@ -7599,16 +7727,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="11" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>151</v>
@@ -7616,16 +7744,16 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="9" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>151</v>
@@ -7633,16 +7761,16 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="11" t="s">
-        <v>629</v>
+        <v>547</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>151</v>
@@ -7650,16 +7778,16 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="9" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>151</v>
@@ -7667,16 +7795,16 @@
     </row>
     <row r="162" spans="1:5" ht="17.25" thickBot="1">
       <c r="A162" s="13" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>738</v>
+        <v>614</v>
       </c>
       <c r="E162" s="15" t="s">
         <v>151</v>
@@ -7694,16 +7822,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="11" t="s">
-        <v>632</v>
+        <v>550</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>151</v>
@@ -7711,16 +7839,16 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>739</v>
+        <v>615</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>148</v>
@@ -7728,33 +7856,33 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>688</v>
+        <v>569</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>148</v>
@@ -7762,16 +7890,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="11" t="s">
-        <v>633</v>
+        <v>731</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>162</v>
@@ -7779,50 +7907,50 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="9" t="s">
-        <v>634</v>
+        <v>551</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>741</v>
+        <v>616</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>742</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="11" t="s">
-        <v>635</v>
+        <v>732</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="9" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>154</v>
@@ -7830,16 +7958,16 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="11" t="s">
-        <v>637</v>
+        <v>733</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>151</v>
@@ -7847,16 +7975,16 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="9" t="s">
-        <v>638</v>
+        <v>734</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>743</v>
+        <v>618</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>151</v>
@@ -7864,16 +7992,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="11" t="s">
-        <v>639</v>
+        <v>735</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>151</v>
@@ -7881,16 +8009,16 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="9" t="s">
-        <v>640</v>
+        <v>736</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>151</v>
@@ -7898,7 +8026,7 @@
     </row>
     <row r="177" spans="1:5" ht="17.25" thickBot="1">
       <c r="A177" s="13" t="s">
-        <v>641</v>
+        <v>30</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>29</v>
@@ -7907,7 +8035,7 @@
         <v>31</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="E177" s="15" t="s">
         <v>151</v>
@@ -7925,16 +8053,16 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="11" t="s">
-        <v>642</v>
+        <v>553</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>151</v>
@@ -7942,33 +8070,33 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>148</v>
@@ -7976,50 +8104,50 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>744</v>
+        <v>619</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="11" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
-        <v>645</v>
+        <v>738</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>167</v>
@@ -8027,19 +8155,19 @@
     </row>
     <row r="186" spans="1:5" ht="17.25" thickBot="1">
       <c r="A186" s="13" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>745</v>
+        <v>620</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>747</v>
+        <v>621</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="E186" s="15" t="s">
-        <v>749</v>
+        <v>622</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17.25" thickBot="1"/>
@@ -8054,16 +8182,16 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="11" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>151</v>
@@ -8071,16 +8199,16 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>750</v>
+        <v>623</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>151</v>
@@ -8088,16 +8216,16 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="11" t="s">
-        <v>647</v>
+        <v>740</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>162</v>
@@ -8105,16 +8233,16 @@
     </row>
     <row r="192" spans="1:5" ht="17.25" thickBot="1">
       <c r="A192" s="16" t="s">
-        <v>648</v>
+        <v>741</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="E192" s="18" t="s">
         <v>151</v>
@@ -8132,16 +8260,16 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="11" t="s">
-        <v>649</v>
+        <v>555</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>151</v>
@@ -8149,7 +8277,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="9" t="s">
-        <v>650</v>
+        <v>742</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>152</v>
@@ -8158,7 +8286,7 @@
         <v>153</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>154</v>
@@ -8166,16 +8294,16 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="11" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>148</v>
@@ -8183,7 +8311,7 @@
     </row>
     <row r="198" spans="1:5" ht="17.25" thickBot="1">
       <c r="A198" s="16" t="s">
-        <v>652</v>
+        <v>743</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>157</v>
@@ -8192,7 +8320,7 @@
         <v>158</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>733</v>
+        <v>612</v>
       </c>
       <c r="E198" s="18" t="s">
         <v>159</v>
@@ -8210,16 +8338,16 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="11" t="s">
-        <v>653</v>
+        <v>556</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>752</v>
+        <v>624</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>151</v>
@@ -8227,33 +8355,33 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>688</v>
+        <v>569</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>148</v>
@@ -8261,19 +8389,19 @@
     </row>
     <row r="204" spans="1:5" ht="17.25" thickBot="1">
       <c r="A204" s="16" t="s">
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>655</v>
+        <v>557</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="E204" s="18" t="s">
-        <v>444</v>
+        <v>777</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="17.25" thickBot="1"/>
@@ -8288,33 +8416,33 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>688</v>
+        <v>569</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B208" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C208" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="D208" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>148</v>
@@ -8322,16 +8450,16 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="11" t="s">
-        <v>656</v>
+        <v>745</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E209" s="12" t="s">
         <v>151</v>
@@ -8339,16 +8467,16 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="9" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>151</v>
@@ -8356,16 +8484,16 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="11" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E211" s="12" t="s">
         <v>151</v>
@@ -8373,16 +8501,16 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="9" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>151</v>
@@ -8390,16 +8518,16 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="11" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E213" s="12" t="s">
         <v>151</v>
@@ -8407,16 +8535,16 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="9" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>151</v>
@@ -8424,16 +8552,16 @@
     </row>
     <row r="215" spans="1:5" ht="17.25" thickBot="1">
       <c r="A215" s="13" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E215" s="15" t="s">
         <v>151</v>
@@ -8451,16 +8579,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="11" t="s">
-        <v>663</v>
+        <v>558</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>664</v>
+        <v>559</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>151</v>
@@ -8468,33 +8596,33 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>688</v>
+        <v>781</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>754</v>
+        <v>625</v>
       </c>
       <c r="E220" s="12" t="s">
         <v>148</v>
@@ -8502,16 +8630,16 @@
     </row>
     <row r="221" spans="1:5" ht="17.25" thickBot="1">
       <c r="A221" s="16" t="s">
-        <v>665</v>
+        <v>560</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>718</v>
+        <v>652</v>
       </c>
       <c r="E221" s="18" t="s">
         <v>162</v>
@@ -8529,16 +8657,16 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="11" t="s">
-        <v>666</v>
+        <v>561</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>755</v>
+        <v>626</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>151</v>
@@ -8546,16 +8674,16 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="9" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>756</v>
+        <v>627</v>
       </c>
       <c r="E225" s="10" t="s">
         <v>151</v>
@@ -8563,33 +8691,33 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>148</v>
@@ -8597,16 +8725,16 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="11" t="s">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>162</v>
@@ -8614,16 +8742,16 @@
     </row>
     <row r="229" spans="1:5" ht="17.25" thickBot="1">
       <c r="A229" s="16" t="s">
-        <v>668</v>
+        <v>741</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>758</v>
+        <v>628</v>
       </c>
       <c r="E229" s="18" t="s">
         <v>151</v>
@@ -8641,7 +8769,7 @@
     </row>
     <row r="232" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>178</v>
@@ -8650,24 +8778,24 @@
         <v>179</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>688</v>
+        <v>781</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A233" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>146</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="E233" s="10" t="s">
         <v>148</v>
@@ -8675,16 +8803,16 @@
     </row>
     <row r="234" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A234" s="11" t="s">
-        <v>507</v>
+        <v>665</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>183</v>
+        <v>649</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E234" s="12" t="s">
         <v>154</v>
@@ -8692,16 +8820,16 @@
     </row>
     <row r="235" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A235" s="9" t="s">
-        <v>509</v>
+        <v>666</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E235" s="10" t="s">
         <v>170</v>
@@ -8709,16 +8837,16 @@
     </row>
     <row r="236" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A236" s="11" t="s">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>167</v>
@@ -8726,50 +8854,50 @@
     </row>
     <row r="237" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>512</v>
+        <v>753</v>
       </c>
       <c r="B237" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E237" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E237" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A238" s="11" t="s">
-        <v>513</v>
+        <v>661</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A239" s="9" t="s">
-        <v>514</v>
+        <v>670</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>720</v>
+        <v>776</v>
       </c>
       <c r="E239" s="10" t="s">
         <v>162</v>
@@ -8777,16 +8905,16 @@
     </row>
     <row r="240" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A240" s="11" t="s">
-        <v>515</v>
+        <v>671</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>162</v>
@@ -8794,16 +8922,16 @@
     </row>
     <row r="241" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A241" s="9" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>159</v>
@@ -8811,16 +8939,16 @@
     </row>
     <row r="242" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A242" s="11" t="s">
-        <v>517</v>
+        <v>672</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>151</v>
@@ -8828,16 +8956,16 @@
     </row>
     <row r="243" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A243" s="9" t="s">
-        <v>518</v>
+        <v>673</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E243" s="10" t="s">
         <v>151</v>
@@ -8845,16 +8973,16 @@
     </row>
     <row r="244" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A244" s="11" t="s">
-        <v>519</v>
+        <v>674</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>202</v>
+        <v>651</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>151</v>
@@ -8862,16 +8990,16 @@
     </row>
     <row r="245" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A245" s="9" t="s">
-        <v>521</v>
+        <v>675</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>151</v>
@@ -8879,16 +9007,16 @@
     </row>
     <row r="246" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A246" s="11" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>713</v>
+        <v>600</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>151</v>
@@ -8896,16 +9024,16 @@
     </row>
     <row r="247" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A247" s="9" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>151</v>
@@ -8913,16 +9041,16 @@
     </row>
     <row r="248" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A248" s="11" t="s">
-        <v>526</v>
+        <v>676</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>151</v>
@@ -8930,16 +9058,16 @@
     </row>
     <row r="249" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A249" s="9" t="s">
-        <v>527</v>
+        <v>677</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>167</v>
@@ -8947,33 +9075,33 @@
     </row>
     <row r="250" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A250" s="11" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>714</v>
+        <v>601</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A251" s="9" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>770</v>
+        <v>639</v>
       </c>
       <c r="E251" s="10" t="s">
         <v>167</v>
@@ -8981,16 +9109,16 @@
     </row>
     <row r="252" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A252" s="11" t="s">
-        <v>530</v>
+        <v>678</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>159</v>
@@ -8998,16 +9126,16 @@
     </row>
     <row r="253" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A253" s="9" t="s">
-        <v>531</v>
+        <v>679</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>469</v>
+        <v>650</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>771</v>
+        <v>640</v>
       </c>
       <c r="E253" s="10" t="s">
         <v>167</v>
@@ -9015,19 +9143,19 @@
     </row>
     <row r="254" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A254" s="13" t="s">
-        <v>533</v>
+        <v>680</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="E254" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17.25" thickBot="1"/>
@@ -9042,33 +9170,33 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E258" s="10" t="s">
         <v>148</v>
@@ -9076,16 +9204,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="11" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>151</v>
@@ -9093,16 +9221,16 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="9" t="s">
-        <v>657</v>
+        <v>755</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E260" s="10" t="s">
         <v>151</v>
@@ -9110,16 +9238,16 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="11" t="s">
-        <v>658</v>
+        <v>756</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>151</v>
@@ -9127,16 +9255,16 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="9" t="s">
-        <v>659</v>
+        <v>757</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E262" s="10" t="s">
         <v>151</v>
@@ -9144,16 +9272,16 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="11" t="s">
-        <v>660</v>
+        <v>758</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>151</v>
@@ -9161,16 +9289,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="9" t="s">
-        <v>661</v>
+        <v>759</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E264" s="10" t="s">
         <v>151</v>
@@ -9178,16 +9306,16 @@
     </row>
     <row r="265" spans="1:5" ht="17.25" thickBot="1">
       <c r="A265" s="13" t="s">
-        <v>662</v>
+        <v>760</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>732</v>
+        <v>611</v>
       </c>
       <c r="E265" s="15" t="s">
         <v>151</v>
@@ -9205,16 +9333,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="11" t="s">
-        <v>669</v>
+        <v>761</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>151</v>
@@ -9222,33 +9350,33 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>688</v>
+        <v>569</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>759</v>
+        <v>629</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>148</v>
@@ -9256,16 +9384,16 @@
     </row>
     <row r="271" spans="1:5" ht="17.25" thickBot="1">
       <c r="A271" s="16" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E271" s="18" t="s">
         <v>162</v>
@@ -9283,16 +9411,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="11" t="s">
-        <v>671</v>
+        <v>763</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>758</v>
+        <v>628</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>151</v>
@@ -9300,16 +9428,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E275" s="10" t="s">
         <v>151</v>
@@ -9317,16 +9445,16 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="11" t="s">
-        <v>649</v>
+        <v>555</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>738</v>
+        <v>614</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>151</v>
@@ -9334,16 +9462,16 @@
     </row>
     <row r="277" spans="1:5" ht="17.25" thickBot="1">
       <c r="A277" s="16" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="B277" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="E277" s="18" t="s">
         <v>170</v>
@@ -9364,30 +9492,30 @@
         <v>168</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E281" s="10" t="s">
         <v>167</v>
@@ -9395,16 +9523,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>167</v>
@@ -9412,33 +9540,33 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="11" t="s">
-        <v>772</v>
+        <v>641</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>773</v>
+        <v>642</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>774</v>
+        <v>643</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>775</v>
+        <v>644</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>776</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17.25" thickBot="1">
       <c r="A284" s="16" t="s">
-        <v>777</v>
+        <v>646</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>778</v>
+        <v>647</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>779</v>
+        <v>648</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E284" s="18" t="s">
         <v>167</v>
@@ -9456,16 +9584,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="11" t="s">
-        <v>673</v>
+        <v>562</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>674</v>
+        <v>563</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>151</v>
@@ -9473,16 +9601,16 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="9" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="E288" s="10" t="s">
         <v>151</v>
@@ -9490,16 +9618,16 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="11" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>148</v>
@@ -9507,33 +9635,33 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="9" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E291" s="12" t="s">
         <v>148</v>
@@ -9541,16 +9669,16 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="E292" s="10" t="s">
         <v>167</v>
@@ -9558,16 +9686,16 @@
     </row>
     <row r="293" spans="1:5" ht="17.25" thickBot="1">
       <c r="A293" s="13" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>738</v>
+        <v>614</v>
       </c>
       <c r="E293" s="15" t="s">
         <v>151</v>
@@ -9575,6 +9703,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A286:E286"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -9591,17 +9730,6 @@
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="A194:E194"/>
     <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A206:E206"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9629,84 +9757,84 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>693</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>700</v>
+        <v>587</v>
       </c>
       <c r="C1" t="s">
-        <v>704</v>
+        <v>591</v>
       </c>
       <c r="D1" t="s">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="E1" t="s">
-        <v>702</v>
+        <v>589</v>
       </c>
       <c r="F1" t="s">
-        <v>704</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
-        <v>705</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
-        <v>697</v>
+        <v>584</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
+        <v>590</v>
       </c>
       <c r="F2" t="s">
-        <v>705</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>694</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>699</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>706</v>
+        <v>593</v>
       </c>
       <c r="D3" t="s">
-        <v>698</v>
+        <v>585</v>
       </c>
       <c r="E3" t="s">
-        <v>695</v>
+        <v>582</v>
       </c>
       <c r="F3" t="s">
-        <v>706</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30" t="s">
-        <v>707</v>
+        <v>594</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>710</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>709</v>
+        <v>596</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>

--- a/ProjectOctober/resources/표기 표준화 문서.xlsx
+++ b/ProjectOctober/resources/표기 표준화 문서.xlsx
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="785">
   <si>
     <t xml:space="preserve">표기화 표준 문서 Ver 0.1 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3013,9 +3013,6 @@
     <t>cpnNum</t>
   </si>
   <si>
-    <t>Specialty</t>
-  </si>
-  <si>
     <t>cardNum</t>
   </si>
   <si>
@@ -3693,10 +3690,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4066,6 +4059,18 @@
   </si>
   <si>
     <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subclass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svcCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5300,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5320,7 +5325,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -5330,7 +5335,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -5340,7 +5345,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -5350,24 +5355,24 @@
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>565</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -5376,7 +5381,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>145</v>
@@ -5385,7 +5390,7 @@
         <v>146</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>148</v>
@@ -5393,7 +5398,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>149</v>
@@ -5402,15 +5407,15 @@
         <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>152</v>
@@ -5419,7 +5424,7 @@
         <v>153</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>154</v>
@@ -5427,7 +5432,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>155</v>
@@ -5436,7 +5441,7 @@
         <v>156</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>154</v>
@@ -5444,7 +5449,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>157</v>
@@ -5453,7 +5458,7 @@
         <v>158</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>159</v>
@@ -5461,7 +5466,7 @@
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>160</v>
@@ -5470,7 +5475,7 @@
         <v>161</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>162</v>
@@ -5479,7 +5484,7 @@
     <row r="13" spans="1:6" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -5497,7 +5502,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>148</v>
@@ -5505,7 +5510,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>165</v>
@@ -5514,7 +5519,7 @@
         <v>166</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>167</v>
@@ -5522,7 +5527,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>168</v>
@@ -5531,7 +5536,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>170</v>
@@ -5539,7 +5544,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>171</v>
@@ -5548,7 +5553,7 @@
         <v>172</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>162</v>
@@ -5556,7 +5561,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>173</v>
@@ -5565,7 +5570,7 @@
         <v>174</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>175</v>
@@ -5573,7 +5578,7 @@
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="A20" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>176</v>
@@ -5582,7 +5587,7 @@
         <v>177</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>151</v>
@@ -5591,7 +5596,7 @@
     <row r="21" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="22" spans="1:5">
       <c r="A22" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -5609,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5626,7 +5631,7 @@
         <v>181</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>148</v>
@@ -5634,7 +5639,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>492</v>
@@ -5643,7 +5648,7 @@
         <v>182</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>154</v>
@@ -5651,7 +5656,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>493</v>
@@ -5660,7 +5665,7 @@
         <v>184</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>170</v>
@@ -5668,7 +5673,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>165</v>
@@ -5677,7 +5682,7 @@
         <v>185</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>167</v>
@@ -5685,7 +5690,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>168</v>
@@ -5694,7 +5699,7 @@
         <v>186</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>187</v>
@@ -5702,7 +5707,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>188</v>
@@ -5711,7 +5716,7 @@
         <v>189</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>190</v>
@@ -5719,7 +5724,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>191</v>
@@ -5728,7 +5733,7 @@
         <v>192</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>151</v>
@@ -5736,7 +5741,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>193</v>
@@ -5745,7 +5750,7 @@
         <v>194</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>151</v>
@@ -5753,7 +5758,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>157</v>
@@ -5762,7 +5767,7 @@
         <v>195</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>159</v>
@@ -5770,7 +5775,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>196</v>
@@ -5779,7 +5784,7 @@
         <v>197</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>151</v>
@@ -5787,7 +5792,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>198</v>
@@ -5796,7 +5801,7 @@
         <v>199</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>151</v>
@@ -5804,7 +5809,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>494</v>
@@ -5813,7 +5818,7 @@
         <v>200</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>151</v>
@@ -5821,7 +5826,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>201</v>
@@ -5830,7 +5835,7 @@
         <v>495</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>151</v>
@@ -5847,7 +5852,7 @@
         <v>204</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>151</v>
@@ -5864,7 +5869,7 @@
         <v>206</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>151</v>
@@ -5872,7 +5877,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>207</v>
@@ -5881,7 +5886,7 @@
         <v>208</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>151</v>
@@ -5889,7 +5894,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>209</v>
@@ -5898,7 +5903,7 @@
         <v>210</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>167</v>
@@ -5915,7 +5920,7 @@
         <v>212</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>213</v>
@@ -5932,7 +5937,7 @@
         <v>215</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>167</v>
@@ -5940,7 +5945,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>216</v>
@@ -5949,7 +5954,7 @@
         <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>159</v>
@@ -5957,7 +5962,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>501</v>
@@ -5966,7 +5971,7 @@
         <v>218</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>167</v>
@@ -5974,7 +5979,7 @@
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1">
       <c r="A45" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>219</v>
@@ -5983,7 +5988,7 @@
         <v>220</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>213</v>
@@ -5992,7 +5997,7 @@
     <row r="46" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="47" spans="1:5">
       <c r="A47" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -6010,7 +6015,7 @@
         <v>222</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>151</v>
@@ -6027,7 +6032,7 @@
         <v>224</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>225</v>
@@ -6036,7 +6041,7 @@
     <row r="50" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="51" spans="1:5">
       <c r="A51" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -6054,7 +6059,7 @@
         <v>227</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>151</v>
@@ -6071,7 +6076,7 @@
         <v>229</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>151</v>
@@ -6088,7 +6093,7 @@
         <v>231</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>151</v>
@@ -6105,10 +6110,10 @@
         <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6122,7 +6127,7 @@
         <v>235</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>148</v>
@@ -6139,7 +6144,7 @@
         <v>237</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>148</v>
@@ -6147,7 +6152,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>238</v>
@@ -6156,7 +6161,7 @@
         <v>239</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>162</v>
@@ -6164,7 +6169,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>240</v>
@@ -6173,7 +6178,7 @@
         <v>241</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>162</v>
@@ -6181,7 +6186,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>242</v>
@@ -6190,7 +6195,7 @@
         <v>243</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>151</v>
@@ -6198,7 +6203,7 @@
     </row>
     <row r="61" spans="1:5" ht="17.25" thickBot="1">
       <c r="A61" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>173</v>
@@ -6207,7 +6212,7 @@
         <v>244</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>245</v>
@@ -6216,7 +6221,7 @@
     <row r="62" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="63" spans="1:5">
       <c r="A63" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -6234,7 +6239,7 @@
         <v>247</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>151</v>
@@ -6251,7 +6256,7 @@
         <v>233</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>225</v>
@@ -6268,7 +6273,7 @@
         <v>235</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>148</v>
@@ -6276,7 +6281,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>188</v>
@@ -6285,7 +6290,7 @@
         <v>248</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>154</v>
@@ -6293,7 +6298,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>249</v>
@@ -6302,7 +6307,7 @@
         <v>250</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>151</v>
@@ -6310,7 +6315,7 @@
     </row>
     <row r="69" spans="1:5" ht="33">
       <c r="A69" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>252</v>
@@ -6319,15 +6324,15 @@
         <v>253</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>219</v>
@@ -6336,7 +6341,7 @@
         <v>254</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>213</v>
@@ -6344,7 +6349,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>255</v>
@@ -6353,7 +6358,7 @@
         <v>256</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>190</v>
@@ -6361,16 +6366,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>506</v>
+        <v>783</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>257</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>258</v>
@@ -6378,7 +6383,7 @@
     </row>
     <row r="73" spans="1:5" ht="17.25" thickBot="1">
       <c r="A73" s="16" t="s">
-        <v>690</v>
+        <v>784</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>259</v>
@@ -6387,7 +6392,7 @@
         <v>260</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>151</v>
@@ -6405,7 +6410,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>261</v>
@@ -6414,7 +6419,7 @@
         <v>262</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>151</v>
@@ -6431,7 +6436,7 @@
         <v>237</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>148</v>
@@ -6439,7 +6444,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>188</v>
@@ -6448,7 +6453,7 @@
         <v>263</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>154</v>
@@ -6456,16 +6461,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>264</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>265</v>
@@ -6473,7 +6478,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>266</v>
@@ -6482,7 +6487,7 @@
         <v>267</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>268</v>
@@ -6490,7 +6495,7 @@
     </row>
     <row r="81" spans="1:5" ht="17.25" thickBot="1">
       <c r="A81" s="16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>269</v>
@@ -6499,7 +6504,7 @@
         <v>270</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>271</v>
@@ -6517,7 +6522,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>272</v>
@@ -6526,7 +6531,7 @@
         <v>273</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>148</v>
@@ -6534,7 +6539,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>274</v>
@@ -6543,7 +6548,7 @@
         <v>275</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>151</v>
@@ -6551,7 +6556,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>276</v>
@@ -6560,7 +6565,7 @@
         <v>277</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>151</v>
@@ -6568,7 +6573,7 @@
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1">
       <c r="A87" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>278</v>
@@ -6577,7 +6582,7 @@
         <v>279</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>151</v>
@@ -6604,7 +6609,7 @@
         <v>281</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>151</v>
@@ -6621,7 +6626,7 @@
         <v>233</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>225</v>
@@ -6638,7 +6643,7 @@
         <v>235</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>148</v>
@@ -6646,7 +6651,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>188</v>
@@ -6655,7 +6660,7 @@
         <v>282</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>154</v>
@@ -6663,7 +6668,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>283</v>
@@ -6672,7 +6677,7 @@
         <v>284</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>225</v>
@@ -6680,7 +6685,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>285</v>
@@ -6689,7 +6694,7 @@
         <v>286</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>151</v>
@@ -6697,7 +6702,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>238</v>
@@ -6706,7 +6711,7 @@
         <v>287</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>162</v>
@@ -6714,7 +6719,7 @@
     </row>
     <row r="97" spans="1:5" ht="17.25" thickBot="1">
       <c r="A97" s="16" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>240</v>
@@ -6723,7 +6728,7 @@
         <v>288</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>162</v>
@@ -6750,7 +6755,7 @@
         <v>290</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>225</v>
@@ -6767,7 +6772,7 @@
         <v>181</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>148</v>
@@ -6775,7 +6780,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>291</v>
@@ -6784,7 +6789,7 @@
         <v>292</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>151</v>
@@ -6792,7 +6797,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>293</v>
@@ -6801,7 +6806,7 @@
         <v>294</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>151</v>
@@ -6809,7 +6814,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>295</v>
@@ -6818,7 +6823,7 @@
         <v>296</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>151</v>
@@ -6826,7 +6831,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>297</v>
@@ -6835,7 +6840,7 @@
         <v>298</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>151</v>
@@ -6843,7 +6848,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>299</v>
@@ -6852,7 +6857,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>151</v>
@@ -6860,7 +6865,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>301</v>
@@ -6869,7 +6874,7 @@
         <v>302</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>151</v>
@@ -6877,16 +6882,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>303</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>151</v>
@@ -6894,16 +6899,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>304</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>151</v>
@@ -6911,7 +6916,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>305</v>
@@ -6920,7 +6925,7 @@
         <v>306</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>151</v>
@@ -6928,7 +6933,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>307</v>
@@ -6937,7 +6942,7 @@
         <v>308</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>151</v>
@@ -6945,7 +6950,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>309</v>
@@ -6954,7 +6959,7 @@
         <v>310</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>151</v>
@@ -6962,7 +6967,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>311</v>
@@ -6971,7 +6976,7 @@
         <v>312</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>151</v>
@@ -6979,7 +6984,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>313</v>
@@ -6988,7 +6993,7 @@
         <v>314</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>151</v>
@@ -6996,7 +7001,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>315</v>
@@ -7005,7 +7010,7 @@
         <v>316</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>151</v>
@@ -7013,7 +7018,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>317</v>
@@ -7022,7 +7027,7 @@
         <v>318</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>151</v>
@@ -7030,7 +7035,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>319</v>
@@ -7039,7 +7044,7 @@
         <v>320</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>151</v>
@@ -7047,7 +7052,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>321</v>
@@ -7056,7 +7061,7 @@
         <v>322</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>151</v>
@@ -7064,7 +7069,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>323</v>
@@ -7073,7 +7078,7 @@
         <v>324</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>151</v>
@@ -7081,7 +7086,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>325</v>
@@ -7090,7 +7095,7 @@
         <v>326</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>151</v>
@@ -7098,7 +7103,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>327</v>
@@ -7107,7 +7112,7 @@
         <v>328</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>151</v>
@@ -7115,7 +7120,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>329</v>
@@ -7124,7 +7129,7 @@
         <v>330</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>151</v>
@@ -7132,7 +7137,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>331</v>
@@ -7141,7 +7146,7 @@
         <v>332</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>151</v>
@@ -7149,7 +7154,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>333</v>
@@ -7158,7 +7163,7 @@
         <v>334</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>151</v>
@@ -7166,7 +7171,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>335</v>
@@ -7175,7 +7180,7 @@
         <v>336</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>151</v>
@@ -7183,7 +7188,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>337</v>
@@ -7192,7 +7197,7 @@
         <v>338</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>151</v>
@@ -7200,7 +7205,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>339</v>
@@ -7209,7 +7214,7 @@
         <v>340</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>151</v>
@@ -7217,7 +7222,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>341</v>
@@ -7226,7 +7231,7 @@
         <v>342</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>151</v>
@@ -7234,7 +7239,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>343</v>
@@ -7243,7 +7248,7 @@
         <v>344</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>151</v>
@@ -7251,7 +7256,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>345</v>
@@ -7260,7 +7265,7 @@
         <v>346</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>151</v>
@@ -7268,7 +7273,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>347</v>
@@ -7277,7 +7282,7 @@
         <v>348</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>151</v>
@@ -7285,16 +7290,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>349</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>151</v>
@@ -7302,16 +7307,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>350</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>151</v>
@@ -7319,16 +7324,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>526</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>351</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>151</v>
@@ -7336,16 +7341,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>352</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>151</v>
@@ -7353,16 +7358,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>353</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>151</v>
@@ -7370,16 +7375,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>354</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>151</v>
@@ -7387,7 +7392,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>214</v>
@@ -7396,7 +7401,7 @@
         <v>355</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>151</v>
@@ -7404,7 +7409,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>356</v>
@@ -7413,7 +7418,7 @@
         <v>357</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>151</v>
@@ -7421,7 +7426,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>358</v>
@@ -7430,7 +7435,7 @@
         <v>359</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>151</v>
@@ -7438,7 +7443,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>360</v>
@@ -7447,7 +7452,7 @@
         <v>361</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>151</v>
@@ -7455,7 +7460,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>362</v>
@@ -7464,7 +7469,7 @@
         <v>363</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>151</v>
@@ -7472,7 +7477,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>364</v>
@@ -7481,7 +7486,7 @@
         <v>365</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>151</v>
@@ -7489,7 +7494,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>366</v>
@@ -7498,7 +7503,7 @@
         <v>367</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>151</v>
@@ -7506,7 +7511,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>368</v>
@@ -7515,7 +7520,7 @@
         <v>369</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>151</v>
@@ -7523,7 +7528,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>370</v>
@@ -7532,7 +7537,7 @@
         <v>371</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>151</v>
@@ -7540,7 +7545,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>372</v>
@@ -7549,7 +7554,7 @@
         <v>373</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>151</v>
@@ -7557,7 +7562,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>374</v>
@@ -7566,7 +7571,7 @@
         <v>375</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>151</v>
@@ -7574,7 +7579,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>376</v>
@@ -7583,7 +7588,7 @@
         <v>377</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E149" s="10" t="s">
         <v>151</v>
@@ -7591,7 +7596,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>378</v>
@@ -7600,7 +7605,7 @@
         <v>379</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>151</v>
@@ -7608,7 +7613,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>380</v>
@@ -7617,7 +7622,7 @@
         <v>381</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>151</v>
@@ -7625,7 +7630,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>382</v>
@@ -7634,7 +7639,7 @@
         <v>383</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>151</v>
@@ -7642,7 +7647,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>384</v>
@@ -7651,7 +7656,7 @@
         <v>385</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>151</v>
@@ -7659,7 +7664,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>386</v>
@@ -7668,7 +7673,7 @@
         <v>387</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>151</v>
@@ -7676,7 +7681,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>388</v>
@@ -7685,7 +7690,7 @@
         <v>389</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>151</v>
@@ -7693,7 +7698,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>43</v>
@@ -7702,7 +7707,7 @@
         <v>390</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>151</v>
@@ -7710,7 +7715,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>391</v>
@@ -7719,7 +7724,7 @@
         <v>392</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>151</v>
@@ -7727,7 +7732,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>393</v>
@@ -7736,7 +7741,7 @@
         <v>394</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>151</v>
@@ -7744,7 +7749,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>395</v>
@@ -7753,7 +7758,7 @@
         <v>396</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>151</v>
@@ -7761,7 +7766,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>397</v>
@@ -7770,7 +7775,7 @@
         <v>398</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>151</v>
@@ -7778,7 +7783,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>399</v>
@@ -7787,7 +7792,7 @@
         <v>400</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>151</v>
@@ -7795,7 +7800,7 @@
     </row>
     <row r="162" spans="1:5" ht="17.25" thickBot="1">
       <c r="A162" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>401</v>
@@ -7804,7 +7809,7 @@
         <v>402</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E162" s="15" t="s">
         <v>151</v>
@@ -7822,7 +7827,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>403</v>
@@ -7831,7 +7836,7 @@
         <v>404</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>151</v>
@@ -7848,7 +7853,7 @@
         <v>237</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>148</v>
@@ -7865,7 +7870,7 @@
         <v>233</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>225</v>
@@ -7882,7 +7887,7 @@
         <v>235</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>148</v>
@@ -7890,7 +7895,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>405</v>
@@ -7899,7 +7904,7 @@
         <v>406</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>162</v>
@@ -7907,7 +7912,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>407</v>
@@ -7916,15 +7921,15 @@
         <v>408</v>
       </c>
       <c r="D170" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E170" s="10" t="s">
         <v>616</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>409</v>
@@ -7933,7 +7938,7 @@
         <v>410</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>411</v>
@@ -7941,7 +7946,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>412</v>
@@ -7950,7 +7955,7 @@
         <v>413</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>154</v>
@@ -7958,7 +7963,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>414</v>
@@ -7967,7 +7972,7 @@
         <v>415</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>151</v>
@@ -7975,7 +7980,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>416</v>
@@ -7984,7 +7989,7 @@
         <v>417</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>151</v>
@@ -7992,7 +7997,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>418</v>
@@ -8001,7 +8006,7 @@
         <v>419</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>151</v>
@@ -8009,7 +8014,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>420</v>
@@ -8018,7 +8023,7 @@
         <v>421</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>151</v>
@@ -8035,7 +8040,7 @@
         <v>31</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E177" s="15" t="s">
         <v>151</v>
@@ -8053,7 +8058,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>422</v>
@@ -8062,7 +8067,7 @@
         <v>423</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>151</v>
@@ -8079,7 +8084,7 @@
         <v>233</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>225</v>
@@ -8096,7 +8101,7 @@
         <v>235</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>148</v>
@@ -8104,7 +8109,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>424</v>
@@ -8113,7 +8118,7 @@
         <v>425</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>258</v>
@@ -8121,7 +8126,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>219</v>
@@ -8130,7 +8135,7 @@
         <v>426</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>258</v>
@@ -8138,7 +8143,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>165</v>
@@ -8147,7 +8152,7 @@
         <v>427</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>167</v>
@@ -8155,19 +8160,19 @@
     </row>
     <row r="186" spans="1:5" ht="17.25" thickBot="1">
       <c r="A186" s="13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="C186" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="D186" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E186" s="15" t="s">
         <v>621</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="E186" s="15" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17.25" thickBot="1"/>
@@ -8182,7 +8187,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>428</v>
@@ -8191,7 +8196,7 @@
         <v>429</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>151</v>
@@ -8208,7 +8213,7 @@
         <v>431</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>151</v>
@@ -8216,7 +8221,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>252</v>
@@ -8225,7 +8230,7 @@
         <v>432</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>162</v>
@@ -8233,7 +8238,7 @@
     </row>
     <row r="192" spans="1:5" ht="17.25" thickBot="1">
       <c r="A192" s="16" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>433</v>
@@ -8242,7 +8247,7 @@
         <v>434</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E192" s="18" t="s">
         <v>151</v>
@@ -8260,7 +8265,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>435</v>
@@ -8269,7 +8274,7 @@
         <v>436</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>151</v>
@@ -8277,7 +8282,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>152</v>
@@ -8286,7 +8291,7 @@
         <v>153</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>154</v>
@@ -8294,7 +8299,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>437</v>
@@ -8303,7 +8308,7 @@
         <v>147</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>148</v>
@@ -8311,7 +8316,7 @@
     </row>
     <row r="198" spans="1:5" ht="17.25" thickBot="1">
       <c r="A198" s="16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>157</v>
@@ -8320,7 +8325,7 @@
         <v>158</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E198" s="18" t="s">
         <v>159</v>
@@ -8338,7 +8343,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>438</v>
@@ -8347,7 +8352,7 @@
         <v>439</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>151</v>
@@ -8364,7 +8369,7 @@
         <v>290</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>225</v>
@@ -8381,7 +8386,7 @@
         <v>273</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>148</v>
@@ -8389,19 +8394,19 @@
     </row>
     <row r="204" spans="1:5" ht="17.25" thickBot="1">
       <c r="A204" s="16" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>440</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E204" s="18" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="17.25" thickBot="1"/>
@@ -8425,7 +8430,7 @@
         <v>290</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E207" s="12" t="s">
         <v>225</v>
@@ -8442,7 +8447,7 @@
         <v>181</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>148</v>
@@ -8450,7 +8455,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>441</v>
@@ -8459,7 +8464,7 @@
         <v>442</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E209" s="12" t="s">
         <v>151</v>
@@ -8467,7 +8472,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>443</v>
@@ -8476,7 +8481,7 @@
         <v>444</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>151</v>
@@ -8484,7 +8489,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>445</v>
@@ -8493,7 +8498,7 @@
         <v>446</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E211" s="12" t="s">
         <v>151</v>
@@ -8501,7 +8506,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>447</v>
@@ -8510,7 +8515,7 @@
         <v>448</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>151</v>
@@ -8518,7 +8523,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>449</v>
@@ -8527,7 +8532,7 @@
         <v>450</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E213" s="12" t="s">
         <v>151</v>
@@ -8535,7 +8540,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>451</v>
@@ -8544,7 +8549,7 @@
         <v>452</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>151</v>
@@ -8552,7 +8557,7 @@
     </row>
     <row r="215" spans="1:5" ht="17.25" thickBot="1">
       <c r="A215" s="13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>453</v>
@@ -8561,7 +8566,7 @@
         <v>454</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E215" s="15" t="s">
         <v>151</v>
@@ -8579,16 +8584,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B218" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>455</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>151</v>
@@ -8605,7 +8610,7 @@
         <v>233</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>225</v>
@@ -8622,7 +8627,7 @@
         <v>235</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E220" s="12" t="s">
         <v>148</v>
@@ -8630,7 +8635,7 @@
     </row>
     <row r="221" spans="1:5" ht="17.25" thickBot="1">
       <c r="A221" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B221" s="17" t="s">
         <v>456</v>
@@ -8639,7 +8644,7 @@
         <v>457</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E221" s="18" t="s">
         <v>162</v>
@@ -8657,7 +8662,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>458</v>
@@ -8666,7 +8671,7 @@
         <v>459</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>151</v>
@@ -8674,7 +8679,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>460</v>
@@ -8683,7 +8688,7 @@
         <v>461</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E225" s="10" t="s">
         <v>151</v>
@@ -8700,7 +8705,7 @@
         <v>233</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>225</v>
@@ -8717,7 +8722,7 @@
         <v>235</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>148</v>
@@ -8725,7 +8730,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>252</v>
@@ -8734,7 +8739,7 @@
         <v>462</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>162</v>
@@ -8742,7 +8747,7 @@
     </row>
     <row r="229" spans="1:5" ht="17.25" thickBot="1">
       <c r="A229" s="16" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B229" s="17" t="s">
         <v>433</v>
@@ -8751,7 +8756,7 @@
         <v>251</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E229" s="18" t="s">
         <v>151</v>
@@ -8778,7 +8783,7 @@
         <v>179</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E232" s="12" t="s">
         <v>225</v>
@@ -8795,7 +8800,7 @@
         <v>146</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E233" s="10" t="s">
         <v>148</v>
@@ -8803,16 +8808,16 @@
     </row>
     <row r="234" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A234" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E234" s="12" t="s">
         <v>154</v>
@@ -8820,7 +8825,7 @@
     </row>
     <row r="235" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A235" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>183</v>
@@ -8829,7 +8834,7 @@
         <v>184</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E235" s="10" t="s">
         <v>170</v>
@@ -8837,7 +8842,7 @@
     </row>
     <row r="236" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A236" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>165</v>
@@ -8846,7 +8851,7 @@
         <v>185</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>167</v>
@@ -8854,7 +8859,7 @@
     </row>
     <row r="237" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>188</v>
@@ -8863,7 +8868,7 @@
         <v>189</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E237" s="10" t="s">
         <v>190</v>
@@ -8871,7 +8876,7 @@
     </row>
     <row r="238" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A238" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>168</v>
@@ -8880,7 +8885,7 @@
         <v>186</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E238" s="12" t="s">
         <v>187</v>
@@ -8888,7 +8893,7 @@
     </row>
     <row r="239" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A239" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>191</v>
@@ -8897,7 +8902,7 @@
         <v>192</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E239" s="10" t="s">
         <v>162</v>
@@ -8905,7 +8910,7 @@
     </row>
     <row r="240" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A240" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>193</v>
@@ -8914,7 +8919,7 @@
         <v>194</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>162</v>
@@ -8922,7 +8927,7 @@
     </row>
     <row r="241" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A241" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>157</v>
@@ -8931,7 +8936,7 @@
         <v>195</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>159</v>
@@ -8939,7 +8944,7 @@
     </row>
     <row r="242" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A242" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>196</v>
@@ -8948,7 +8953,7 @@
         <v>197</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>151</v>
@@ -8956,7 +8961,7 @@
     </row>
     <row r="243" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A243" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>198</v>
@@ -8965,7 +8970,7 @@
         <v>199</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E243" s="10" t="s">
         <v>151</v>
@@ -8973,16 +8978,16 @@
     </row>
     <row r="244" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A244" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>464</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>151</v>
@@ -8990,7 +8995,7 @@
     </row>
     <row r="245" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A245" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>201</v>
@@ -8999,7 +9004,7 @@
         <v>202</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>151</v>
@@ -9016,7 +9021,7 @@
         <v>204</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>151</v>
@@ -9033,7 +9038,7 @@
         <v>206</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>151</v>
@@ -9041,7 +9046,7 @@
     </row>
     <row r="248" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A248" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>207</v>
@@ -9050,7 +9055,7 @@
         <v>208</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>151</v>
@@ -9058,7 +9063,7 @@
     </row>
     <row r="249" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A249" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>209</v>
@@ -9067,7 +9072,7 @@
         <v>210</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>167</v>
@@ -9084,7 +9089,7 @@
         <v>212</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>213</v>
@@ -9101,7 +9106,7 @@
         <v>215</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E251" s="10" t="s">
         <v>167</v>
@@ -9109,7 +9114,7 @@
     </row>
     <row r="252" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A252" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>216</v>
@@ -9118,7 +9123,7 @@
         <v>217</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>159</v>
@@ -9126,16 +9131,16 @@
     </row>
     <row r="253" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A253" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E253" s="10" t="s">
         <v>167</v>
@@ -9143,7 +9148,7 @@
     </row>
     <row r="254" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A254" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>219</v>
@@ -9152,7 +9157,7 @@
         <v>220</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E254" s="15" t="s">
         <v>213</v>
@@ -9179,7 +9184,7 @@
         <v>290</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>225</v>
@@ -9196,7 +9201,7 @@
         <v>273</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E258" s="10" t="s">
         <v>148</v>
@@ -9204,7 +9209,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>441</v>
@@ -9213,7 +9218,7 @@
         <v>442</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>151</v>
@@ -9221,7 +9226,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>443</v>
@@ -9230,7 +9235,7 @@
         <v>444</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E260" s="10" t="s">
         <v>151</v>
@@ -9238,7 +9243,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>445</v>
@@ -9247,7 +9252,7 @@
         <v>446</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>151</v>
@@ -9255,7 +9260,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>447</v>
@@ -9264,7 +9269,7 @@
         <v>448</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E262" s="10" t="s">
         <v>151</v>
@@ -9272,7 +9277,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>449</v>
@@ -9281,7 +9286,7 @@
         <v>450</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>151</v>
@@ -9289,7 +9294,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>451</v>
@@ -9298,7 +9303,7 @@
         <v>452</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E264" s="10" t="s">
         <v>151</v>
@@ -9306,7 +9311,7 @@
     </row>
     <row r="265" spans="1:5" ht="17.25" thickBot="1">
       <c r="A265" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B265" s="14" t="s">
         <v>453</v>
@@ -9315,7 +9320,7 @@
         <v>454</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E265" s="15" t="s">
         <v>151</v>
@@ -9333,7 +9338,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>465</v>
@@ -9342,7 +9347,7 @@
         <v>455</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>151</v>
@@ -9359,7 +9364,7 @@
         <v>233</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E269" s="10" t="s">
         <v>225</v>
@@ -9376,7 +9381,7 @@
         <v>466</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>148</v>
@@ -9384,7 +9389,7 @@
     </row>
     <row r="271" spans="1:5" ht="17.25" thickBot="1">
       <c r="A271" s="16" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B271" s="17" t="s">
         <v>467</v>
@@ -9393,7 +9398,7 @@
         <v>457</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E271" s="18" t="s">
         <v>162</v>
@@ -9411,7 +9416,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>468</v>
@@ -9420,7 +9425,7 @@
         <v>469</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>151</v>
@@ -9437,7 +9442,7 @@
         <v>431</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E275" s="10" t="s">
         <v>151</v>
@@ -9445,7 +9450,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>470</v>
@@ -9454,7 +9459,7 @@
         <v>471</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>151</v>
@@ -9462,7 +9467,7 @@
     </row>
     <row r="277" spans="1:5" ht="17.25" thickBot="1">
       <c r="A277" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B277" s="17" t="s">
         <v>155</v>
@@ -9471,7 +9476,7 @@
         <v>472</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E277" s="18" t="s">
         <v>170</v>
@@ -9498,7 +9503,7 @@
         <v>474</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>187</v>
@@ -9515,7 +9520,7 @@
         <v>476</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E281" s="10" t="s">
         <v>167</v>
@@ -9532,7 +9537,7 @@
         <v>478</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>167</v>
@@ -9540,33 +9545,33 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B283" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="C283" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="D283" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="D283" s="8" t="s">
+      <c r="E283" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17.25" thickBot="1">
       <c r="A284" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B284" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="B284" s="17" t="s">
+      <c r="C284" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="C284" s="17" t="s">
-        <v>648</v>
-      </c>
       <c r="D284" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E284" s="18" t="s">
         <v>167</v>
@@ -9584,16 +9589,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B287" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>563</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>479</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>151</v>
@@ -9610,7 +9615,7 @@
         <v>431</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E288" s="10" t="s">
         <v>151</v>
@@ -9627,7 +9632,7 @@
         <v>237</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>148</v>
@@ -9644,7 +9649,7 @@
         <v>233</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E290" s="10" t="s">
         <v>225</v>
@@ -9661,7 +9666,7 @@
         <v>235</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E291" s="12" t="s">
         <v>148</v>
@@ -9678,7 +9683,7 @@
         <v>481</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E292" s="10" t="s">
         <v>167</v>
@@ -9686,7 +9691,7 @@
     </row>
     <row r="293" spans="1:5" ht="17.25" thickBot="1">
       <c r="A293" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B293" s="14" t="s">
         <v>482</v>
@@ -9695,7 +9700,7 @@
         <v>483</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E293" s="15" t="s">
         <v>151</v>
@@ -9703,17 +9708,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A286:E286"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -9730,6 +9724,17 @@
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="A194:E194"/>
     <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A206:E206"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9757,84 +9762,84 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" t="s">
         <v>581</v>
       </c>
-      <c r="B3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E3" t="s">
-        <v>582</v>
-      </c>
       <c r="F3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>

--- a/ProjectOctober/resources/표기 표준화 문서.xlsx
+++ b/ProjectOctober/resources/표기 표준화 문서.xlsx
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="815">
   <si>
     <t xml:space="preserve">표기화 표준 문서 Ver 0.1 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4087,6 +4087,30 @@
   </si>
   <si>
     <t>LocalDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4422,6 +4446,15 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4442,15 +4475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4819,13 +4843,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4833,13 +4857,13 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4847,12 +4871,12 @@
       <c r="J2" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
@@ -5042,11 +5066,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
@@ -5332,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5355,40 +5379,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="31"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="31"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1">
       <c r="A5" s="20" t="s">
@@ -5424,7 +5448,7 @@
       <c r="A7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>654</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5444,7 +5468,7 @@
       <c r="A8" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>655</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -5464,7 +5488,7 @@
       <c r="A9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>524</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -5484,7 +5508,7 @@
       <c r="A10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>525</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -5504,7 +5528,7 @@
       <c r="A11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>526</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -5520,7 +5544,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33.75" thickBot="1">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>136</v>
       </c>
@@ -5555,7 +5579,7 @@
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="25" t="s">
         <v>657</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -5575,7 +5599,7 @@
       <c r="A16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="26" t="s">
         <v>658</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -5595,7 +5619,7 @@
       <c r="A17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>659</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -5615,7 +5639,7 @@
       <c r="A18" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="26" t="s">
         <v>660</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -5635,7 +5659,7 @@
       <c r="A19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="25" t="s">
         <v>661</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -5686,7 +5710,7 @@
       <c r="A23" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="25" t="s">
         <v>663</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -5706,7 +5730,7 @@
       <c r="A24" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>664</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -5726,7 +5750,7 @@
       <c r="A25" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="25" t="s">
         <v>684</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -5746,7 +5770,7 @@
       <c r="A26" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>665</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -5766,7 +5790,7 @@
       <c r="A27" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="25" t="s">
         <v>666</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5786,7 +5810,7 @@
       <c r="A28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="26" t="s">
         <v>667</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -5806,7 +5830,7 @@
       <c r="A29" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="25" t="s">
         <v>685</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -5826,7 +5850,7 @@
       <c r="A30" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>675</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -5846,7 +5870,7 @@
       <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="25" t="s">
         <v>686</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5866,7 +5890,7 @@
       <c r="A32" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="26" t="s">
         <v>668</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -5886,7 +5910,7 @@
       <c r="A33" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="25" t="s">
         <v>676</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -5906,7 +5930,7 @@
       <c r="A34" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="26" t="s">
         <v>677</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -5926,7 +5950,7 @@
       <c r="A35" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="25" t="s">
         <v>669</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -5946,7 +5970,7 @@
       <c r="A36" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="26" t="s">
         <v>678</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -5966,7 +5990,7 @@
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="25" t="s">
         <v>679</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5986,7 +6010,7 @@
       <c r="A38" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="26" t="s">
         <v>680</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -6006,7 +6030,7 @@
       <c r="A39" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="25" t="s">
         <v>681</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -6026,7 +6050,7 @@
       <c r="A40" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="26" t="s">
         <v>682</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -6046,7 +6070,7 @@
       <c r="A41" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="25" t="s">
         <v>670</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -6066,7 +6090,7 @@
       <c r="A42" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="26" t="s">
         <v>683</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -6086,7 +6110,7 @@
       <c r="A43" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="25" t="s">
         <v>671</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -6106,7 +6130,7 @@
       <c r="A44" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="26" t="s">
         <v>672</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -6126,7 +6150,7 @@
       <c r="A45" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="25" t="s">
         <v>673</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -6177,7 +6201,7 @@
       <c r="A49" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="25" t="s">
         <v>687</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -6228,7 +6252,7 @@
       <c r="A53" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="25" t="s">
         <v>689</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -6248,7 +6272,7 @@
       <c r="A54" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="26" t="s">
         <v>690</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -6268,7 +6292,7 @@
       <c r="A55" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="25" t="s">
         <v>691</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -6288,7 +6312,7 @@
       <c r="A56" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="26" t="s">
         <v>663</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -6308,7 +6332,7 @@
       <c r="A57" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="25" t="s">
         <v>692</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -6328,7 +6352,7 @@
       <c r="A58" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="26" t="s">
         <v>657</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -6348,7 +6372,7 @@
       <c r="A59" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="25" t="s">
         <v>693</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -6368,7 +6392,7 @@
       <c r="A60" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="26" t="s">
         <v>694</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -6388,7 +6412,7 @@
       <c r="A61" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="25" t="s">
         <v>695</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -6408,7 +6432,7 @@
       <c r="A62" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="26" t="s">
         <v>797</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -6459,7 +6483,7 @@
       <c r="A66" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="25" t="s">
         <v>697</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -6479,7 +6503,7 @@
       <c r="A67" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="26" t="s">
         <v>401</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -6499,7 +6523,7 @@
       <c r="A68" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="25" t="s">
         <v>402</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -6519,7 +6543,7 @@
       <c r="A69" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="26" t="s">
         <v>698</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -6539,7 +6563,7 @@
       <c r="A70" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="25" t="s">
         <v>699</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -6559,7 +6583,7 @@
       <c r="A71" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="26" t="s">
         <v>700</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -6579,7 +6603,7 @@
       <c r="A72" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="25" t="s">
         <v>701</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -6599,7 +6623,7 @@
       <c r="A73" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="26" t="s">
         <v>702</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -6619,7 +6643,7 @@
       <c r="A74" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="25" t="s">
         <v>703</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -6670,7 +6694,7 @@
       <c r="A78" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="25" t="s">
         <v>705</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -6690,7 +6714,7 @@
       <c r="A79" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="26" t="s">
         <v>400</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -6710,7 +6734,7 @@
       <c r="A80" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="25" t="s">
         <v>706</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -6730,7 +6754,7 @@
       <c r="A81" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="26" t="s">
         <v>707</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -6750,7 +6774,7 @@
       <c r="A82" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="25" t="s">
         <v>708</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -6801,7 +6825,7 @@
       <c r="A86" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="25" t="s">
         <v>710</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -6821,7 +6845,7 @@
       <c r="A87" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="26" t="s">
         <v>401</v>
       </c>
       <c r="C87" s="8" t="s">
@@ -6841,7 +6865,7 @@
       <c r="A88" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="25" t="s">
         <v>402</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -6861,7 +6885,7 @@
       <c r="A89" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="26" t="s">
         <v>711</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -6881,7 +6905,7 @@
       <c r="A90" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="25" t="s">
         <v>712</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -6901,7 +6925,7 @@
       <c r="A91" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="26" t="s">
         <v>713</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -6921,7 +6945,7 @@
       <c r="A92" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="25" t="s">
         <v>714</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -6972,7 +6996,7 @@
       <c r="A96" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="25" t="s">
         <v>663</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -6992,7 +7016,7 @@
       <c r="A97" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="26" t="s">
         <v>402</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -7012,7 +7036,7 @@
       <c r="A98" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="25" t="s">
         <v>718</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -7032,7 +7056,7 @@
       <c r="A99" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="26" t="s">
         <v>719</v>
       </c>
       <c r="C99" s="8" t="s">
@@ -7052,7 +7076,7 @@
       <c r="A100" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="25" t="s">
         <v>720</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -7072,7 +7096,7 @@
       <c r="A101" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="26" t="s">
         <v>405</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -7092,7 +7116,7 @@
       <c r="A102" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="25" t="s">
         <v>406</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -7112,7 +7136,7 @@
       <c r="A103" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="26" t="s">
         <v>407</v>
       </c>
       <c r="C103" s="8" t="s">
@@ -7132,7 +7156,7 @@
       <c r="A104" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -7152,7 +7176,7 @@
       <c r="A105" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="26" t="s">
         <v>725</v>
       </c>
       <c r="C105" s="8" t="s">
@@ -7172,7 +7196,7 @@
       <c r="A106" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="25" t="s">
         <v>409</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -7192,7 +7216,7 @@
       <c r="A107" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="26" t="s">
         <v>410</v>
       </c>
       <c r="C107" s="8" t="s">
@@ -7212,7 +7236,7 @@
       <c r="A108" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="25" t="s">
         <v>411</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -7232,7 +7256,7 @@
       <c r="A109" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="26" t="s">
         <v>412</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -7252,7 +7276,7 @@
       <c r="A110" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="25" t="s">
         <v>726</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -7272,7 +7296,7 @@
       <c r="A111" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="26" t="s">
         <v>727</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -7292,7 +7316,7 @@
       <c r="A112" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="25" t="s">
         <v>729</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -7312,7 +7336,7 @@
       <c r="A113" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="26" t="s">
         <v>730</v>
       </c>
       <c r="C113" s="8" t="s">
@@ -7332,7 +7356,7 @@
       <c r="A114" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="25" t="s">
         <v>731</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -7352,7 +7376,7 @@
       <c r="A115" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="26" t="s">
         <v>732</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -7368,11 +7392,11 @@
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="33">
+    <row r="116" spans="1:6">
       <c r="A116" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="25" t="s">
         <v>744</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -7392,7 +7416,7 @@
       <c r="A117" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="26" t="s">
         <v>728</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -7412,7 +7436,7 @@
       <c r="A118" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="25" t="s">
         <v>733</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -7432,7 +7456,7 @@
       <c r="A119" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="26" t="s">
         <v>734</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -7452,7 +7476,7 @@
       <c r="A120" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="25" t="s">
         <v>735</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -7472,7 +7496,7 @@
       <c r="A121" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="26" t="s">
         <v>736</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -7492,7 +7516,7 @@
       <c r="A122" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="25" t="s">
         <v>745</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -7512,7 +7536,7 @@
       <c r="A123" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="26" t="s">
         <v>737</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -7532,7 +7556,7 @@
       <c r="A124" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B124" s="25" t="s">
         <v>738</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -7552,7 +7576,7 @@
       <c r="A125" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="26" t="s">
         <v>739</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -7572,7 +7596,7 @@
       <c r="A126" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="25" t="s">
         <v>740</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -7592,7 +7616,7 @@
       <c r="A127" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="26" t="s">
         <v>741</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -7612,7 +7636,7 @@
       <c r="A128" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="25" t="s">
         <v>746</v>
       </c>
       <c r="C128" s="7" t="s">
@@ -7632,7 +7656,7 @@
       <c r="A129" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="26" t="s">
         <v>414</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -7652,7 +7676,7 @@
       <c r="A130" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="25" t="s">
         <v>416</v>
       </c>
       <c r="C130" s="7" t="s">
@@ -7672,7 +7696,7 @@
       <c r="A131" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="26" t="s">
         <v>418</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -7692,7 +7716,7 @@
       <c r="A132" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="25" t="s">
         <v>742</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -7712,7 +7736,7 @@
       <c r="A133" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="26" t="s">
         <v>743</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -7732,7 +7756,7 @@
       <c r="A134" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="B134" s="25" t="s">
         <v>747</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -7752,7 +7776,7 @@
       <c r="A135" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="26" t="s">
         <v>422</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -7772,7 +7796,7 @@
       <c r="A136" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B136" s="25" t="s">
         <v>423</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -7792,7 +7816,7 @@
       <c r="A137" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="26" t="s">
         <v>424</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -7812,7 +7836,7 @@
       <c r="A138" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="25" t="s">
         <v>425</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -7832,7 +7856,7 @@
       <c r="A139" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="26" t="s">
         <v>426</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -7852,7 +7876,7 @@
       <c r="A140" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B140" s="25" t="s">
         <v>427</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -7872,7 +7896,7 @@
       <c r="A141" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B141" s="33" t="s">
+      <c r="B141" s="26" t="s">
         <v>428</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -7892,7 +7916,7 @@
       <c r="A142" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="25" t="s">
         <v>429</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -7912,7 +7936,7 @@
       <c r="A143" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="26" t="s">
         <v>430</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -7932,7 +7956,7 @@
       <c r="A144" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="25" t="s">
         <v>431</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -7952,7 +7976,7 @@
       <c r="A145" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="26" t="s">
         <v>432</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -7972,7 +7996,7 @@
       <c r="A146" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="25" t="s">
         <v>717</v>
       </c>
       <c r="C146" s="7" t="s">
@@ -7992,7 +8016,7 @@
       <c r="A147" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="26" t="s">
         <v>716</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -8012,7 +8036,7 @@
       <c r="A148" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="25" t="s">
         <v>721</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -8032,7 +8056,7 @@
       <c r="A149" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="26" t="s">
         <v>722</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -8052,7 +8076,7 @@
       <c r="A150" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="25" t="s">
         <v>723</v>
       </c>
       <c r="C150" s="7" t="s">
@@ -8072,7 +8096,7 @@
       <c r="A151" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="26" t="s">
         <v>724</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -8092,7 +8116,7 @@
       <c r="A152" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B152" s="25" t="s">
         <v>433</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -8112,7 +8136,7 @@
       <c r="A153" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="26" t="s">
         <v>434</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -8132,7 +8156,7 @@
       <c r="A154" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="25" t="s">
         <v>435</v>
       </c>
       <c r="C154" s="7" t="s">
@@ -8152,7 +8176,7 @@
       <c r="A155" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="26" t="s">
         <v>436</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -8172,7 +8196,7 @@
       <c r="A156" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="25" t="s">
         <v>437</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -8192,7 +8216,7 @@
       <c r="A157" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="26" t="s">
         <v>438</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -8243,7 +8267,7 @@
       <c r="A161" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="25" t="s">
         <v>749</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -8263,7 +8287,7 @@
       <c r="A162" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="26" t="s">
         <v>400</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -8283,7 +8307,7 @@
       <c r="A163" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="25" t="s">
         <v>401</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -8303,7 +8327,7 @@
       <c r="A164" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="26" t="s">
         <v>402</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -8323,7 +8347,7 @@
       <c r="A165" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="25" t="s">
         <v>755</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -8343,7 +8367,7 @@
       <c r="A166" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B166" s="33" t="s">
+      <c r="B166" s="26" t="s">
         <v>756</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -8363,7 +8387,7 @@
       <c r="A167" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B167" s="25" t="s">
         <v>757</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -8383,7 +8407,7 @@
       <c r="A168" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B168" s="33" t="s">
+      <c r="B168" s="26" t="s">
         <v>439</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -8403,7 +8427,7 @@
       <c r="A169" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="25" t="s">
         <v>750</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -8423,7 +8447,7 @@
       <c r="A170" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="26" t="s">
         <v>751</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -8443,7 +8467,7 @@
       <c r="A171" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B171" s="25" t="s">
         <v>752</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -8463,7 +8487,7 @@
       <c r="A172" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B172" s="33" t="s">
+      <c r="B172" s="26" t="s">
         <v>753</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -8514,7 +8538,7 @@
       <c r="A176" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="25" t="s">
         <v>758</v>
       </c>
       <c r="C176" s="7" t="s">
@@ -8534,7 +8558,7 @@
       <c r="A177" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="33" t="s">
+      <c r="B177" s="26" t="s">
         <v>401</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -8554,7 +8578,7 @@
       <c r="A178" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="25" t="s">
         <v>402</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -8574,7 +8598,7 @@
       <c r="A179" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B179" s="33" t="s">
+      <c r="B179" s="26" t="s">
         <v>759</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -8594,7 +8618,7 @@
       <c r="A180" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="25" t="s">
         <v>760</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -8614,7 +8638,7 @@
       <c r="A181" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B181" s="33" t="s">
+      <c r="B181" s="26" t="s">
         <v>761</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -8665,7 +8689,7 @@
       <c r="A185" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B185" s="32" t="s">
+      <c r="B185" s="25" t="s">
         <v>763</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -8685,7 +8709,7 @@
       <c r="A186" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B186" s="33" t="s">
+      <c r="B186" s="26" t="s">
         <v>404</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -8705,7 +8729,7 @@
       <c r="A187" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B187" s="32" t="s">
+      <c r="B187" s="25" t="s">
         <v>764</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -8756,7 +8780,7 @@
       <c r="A191" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="25" t="s">
         <v>766</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -8776,7 +8800,7 @@
       <c r="A192" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B192" s="26" t="s">
         <v>767</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -8796,7 +8820,7 @@
       <c r="A193" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="25" t="s">
         <v>768</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -8847,7 +8871,7 @@
       <c r="A197" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B197" s="32" t="s">
+      <c r="B197" s="25" t="s">
         <v>663</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -8867,7 +8891,7 @@
       <c r="A198" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B198" s="33" t="s">
+      <c r="B198" s="26" t="s">
         <v>770</v>
       </c>
       <c r="C198" s="8" t="s">
@@ -8887,7 +8911,7 @@
       <c r="A199" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="25" t="s">
         <v>771</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -8907,7 +8931,7 @@
       <c r="A200" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="26" t="s">
         <v>772</v>
       </c>
       <c r="C200" s="8" t="s">
@@ -8927,7 +8951,7 @@
       <c r="A201" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B201" s="32" t="s">
+      <c r="B201" s="25" t="s">
         <v>773</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -8947,7 +8971,7 @@
       <c r="A202" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B202" s="33" t="s">
+      <c r="B202" s="26" t="s">
         <v>774</v>
       </c>
       <c r="C202" s="8" t="s">
@@ -8967,7 +8991,7 @@
       <c r="A203" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B203" s="32" t="s">
+      <c r="B203" s="25" t="s">
         <v>775</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -8987,7 +9011,7 @@
       <c r="A204" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B204" s="33" t="s">
+      <c r="B204" s="26" t="s">
         <v>776</v>
       </c>
       <c r="C204" s="8" t="s">
@@ -9038,7 +9062,7 @@
       <c r="A208" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B208" s="32" t="s">
+      <c r="B208" s="25" t="s">
         <v>778</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -9058,7 +9082,7 @@
       <c r="A209" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B209" s="33" t="s">
+      <c r="B209" s="26" t="s">
         <v>401</v>
       </c>
       <c r="C209" s="8" t="s">
@@ -9078,7 +9102,7 @@
       <c r="A210" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B210" s="32" t="s">
+      <c r="B210" s="25" t="s">
         <v>402</v>
       </c>
       <c r="C210" s="7" t="s">
@@ -9129,7 +9153,7 @@
       <c r="A214" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="25" t="s">
         <v>779</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -9149,7 +9173,7 @@
       <c r="A215" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B215" s="33" t="s">
+      <c r="B215" s="26" t="s">
         <v>440</v>
       </c>
       <c r="C215" s="8" t="s">
@@ -9169,7 +9193,7 @@
       <c r="A216" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="25" t="s">
         <v>401</v>
       </c>
       <c r="C216" s="7" t="s">
@@ -9189,7 +9213,7 @@
       <c r="A217" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B217" s="33" t="s">
+      <c r="B217" s="26" t="s">
         <v>402</v>
       </c>
       <c r="C217" s="8" t="s">
@@ -9209,7 +9233,7 @@
       <c r="A218" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="25" t="s">
         <v>780</v>
       </c>
       <c r="C218" s="7" t="s">
@@ -9260,7 +9284,7 @@
       <c r="A222" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B222" s="32" t="s">
+      <c r="B222" s="25" t="s">
         <v>782</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -9280,7 +9304,7 @@
       <c r="A223" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B223" s="33" t="s">
+      <c r="B223" s="26" t="s">
         <v>784</v>
       </c>
       <c r="C223" s="8" t="s">
@@ -9300,7 +9324,7 @@
       <c r="A224" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B224" s="32" t="s">
+      <c r="B224" s="25" t="s">
         <v>441</v>
       </c>
       <c r="C224" s="7" t="s">
@@ -9351,7 +9375,7 @@
       <c r="A228" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B228" s="32" t="s">
+      <c r="B228" s="25" t="s">
         <v>785</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -9371,7 +9395,7 @@
       <c r="A229" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="B229" s="33" t="s">
+      <c r="B229" s="26" t="s">
         <v>786</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -9391,7 +9415,7 @@
       <c r="A230" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B230" s="32" t="s">
+      <c r="B230" s="25" t="s">
         <v>787</v>
       </c>
       <c r="C230" s="7" t="s">
@@ -9411,7 +9435,7 @@
       <c r="A231" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B231" s="33" t="s">
+      <c r="B231" s="26" t="s">
         <v>788</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -9462,7 +9486,7 @@
       <c r="A235" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B235" s="32" t="s">
+      <c r="B235" s="25" t="s">
         <v>790</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -9482,7 +9506,7 @@
       <c r="A236" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B236" s="33" t="s">
+      <c r="B236" s="26" t="s">
         <v>404</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -9502,7 +9526,7 @@
       <c r="A237" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B237" s="32" t="s">
+      <c r="B237" s="25" t="s">
         <v>400</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -9522,7 +9546,7 @@
       <c r="A238" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="26" t="s">
         <v>401</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -9542,7 +9566,7 @@
       <c r="A239" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B239" s="32" t="s">
+      <c r="B239" s="25" t="s">
         <v>402</v>
       </c>
       <c r="C239" s="7" t="s">
@@ -9562,7 +9586,7 @@
       <c r="A240" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B240" s="33" t="s">
+      <c r="B240" s="26" t="s">
         <v>791</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -9582,7 +9606,7 @@
       <c r="A241" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="B241" s="33" t="s">
+      <c r="B241" s="26" t="s">
         <v>806</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -9633,7 +9657,7 @@
       <c r="A245" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="B245" s="32" t="s">
+      <c r="B245" s="25" t="s">
         <v>793</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -9653,7 +9677,7 @@
       <c r="A246" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B246" s="33" t="s">
+      <c r="B246" s="26" t="s">
         <v>794</v>
       </c>
       <c r="C246" s="8" t="s">
@@ -9673,7 +9697,7 @@
       <c r="A247" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B247" s="32" t="s">
+      <c r="B247" s="25" t="s">
         <v>795</v>
       </c>
       <c r="C247" s="7" t="s">
@@ -9693,7 +9717,7 @@
       <c r="A248" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B248" s="32" t="s">
+      <c r="B248" s="25" t="s">
         <v>799</v>
       </c>
       <c r="C248" s="7" t="s">
@@ -9729,15 +9753,61 @@
         <v>531</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="17.100000000000001" customHeight="1"/>
-    <row r="251" spans="1:6" ht="17.100000000000001" customHeight="1"/>
-    <row r="252" spans="1:6" ht="17.100000000000001" customHeight="1"/>
-    <row r="253" spans="1:6" ht="17.100000000000001" customHeight="1"/>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="250" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="251" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A251" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="B251" s="22"/>
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="23"/>
+    </row>
+    <row r="252" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A252" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A253" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E253" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="F253" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -9829,16 +9899,16 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -9846,14 +9916,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
